--- a/assets/docs/Maestro_de_Documento.xlsx
+++ b/assets/docs/Maestro_de_Documento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\OneDrive\Documents\Documentos Ingenieria de software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB87569E-EFF5-40BF-9DCD-A29A2F2EBF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A1C1C2-3F99-430B-9E5E-5D547A040311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7725F602-E1C8-4DA8-9AC6-97E6D3572721}"/>
   </bookViews>
@@ -20,12 +20,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>Fase</t>
   </si>
@@ -103,6 +106,33 @@
   </si>
   <si>
     <t>Documento_Final</t>
+  </si>
+  <si>
+    <t>Script_definición_de_procesos_Grupo_5 2</t>
+  </si>
+  <si>
+    <t>log_Defectos2</t>
+  </si>
+  <si>
+    <t>ControlAsignaciones_Grupo 2</t>
+  </si>
+  <si>
+    <t>Bitacora_Tiempo 2</t>
+  </si>
+  <si>
+    <t>Documento_Final 2</t>
+  </si>
+  <si>
+    <t>Definicion Estrategia</t>
+  </si>
+  <si>
+    <t>Plan Riesgos</t>
+  </si>
+  <si>
+    <t>Estrategias</t>
+  </si>
+  <si>
+    <t>Plan de Riesgos</t>
   </si>
 </sst>
 </file>
@@ -471,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF4E2E2-D227-471B-8057-B094860A1C76}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -658,31 +688,169 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45893</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45894</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.2</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45893</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45894</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.5</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45893</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45894</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.6</v>
+      </c>
       <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45893</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45894</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45893</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45894</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2">
+        <v>45893</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45894</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45893</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45894</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2">
+        <v>45894</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45895</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/docs/Maestro_de_Documento.xlsx
+++ b/assets/docs/Maestro_de_Documento.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="124">
   <si>
     <t>Fase</t>
   </si>
@@ -349,10 +349,37 @@
     <t>Documento final 5</t>
   </si>
   <si>
+    <t>Implementacion</t>
+  </si>
+  <si>
+    <t>Plantilla Plan de Implementacion</t>
+  </si>
+  <si>
+    <t>Excel Plan de Pruebas Unitarias</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1FWtU9hSLxstk-De1OQQQcv1uZ_Cow20m/edit?gid=420254295#gid=420254295</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1IbARxuTeOY2qWEzCasl3rCnB_irvc6KH/edit?gid=483070094#gid=483070094</t>
+  </si>
+  <si>
+    <t>Documento Final 6</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1URD1RMH1CQzSUltUoWrTL-RXCT0zOykF/edit?usp=drive_web&amp;ouid=114709403431522966334&amp;rtpof=true</t>
+  </si>
+  <si>
+    <t>Bitacora Individual()</t>
+  </si>
+  <si>
+    <t>Bitacora</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1AM51YULd7YGRPrGdpB-c4GOUy7bbiO_U/edit?rtpof=true</t>
+  </si>
+  <si>
     <t>Bitacora_Tiempo_Nicolas</t>
-  </si>
-  <si>
-    <t>Bitacora</t>
   </si>
   <si>
     <t>https://docs.google.com/document/d/1dvc9DgpfgTd8wvz5caS2-DtgVCq4ESe2/edit</t>
@@ -371,7 +398,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -404,7 +431,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -412,7 +438,14 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -443,47 +476,28 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="14" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -755,10 +769,10 @@
       <c r="E2" s="2">
         <v>45881.0</v>
       </c>
-      <c r="F2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -776,10 +790,10 @@
       <c r="E3" s="2">
         <v>45878.0</v>
       </c>
-      <c r="F3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -797,10 +811,10 @@
       <c r="E4" s="2">
         <v>45881.0</v>
       </c>
-      <c r="F4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -815,13 +829,13 @@
       <c r="D5" s="2">
         <v>45881.0</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="2">
         <v>45913.0</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>1.1</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -839,10 +853,10 @@
       <c r="E6" s="2">
         <v>45881.0</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>1.1</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -860,1182 +874,1228 @@
       <c r="E7" s="2">
         <v>45881.0</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>1.1</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>1.1</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>1.2</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>1.2</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>1.2</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G14" s="12" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G15" s="12" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G16" s="14" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G17" s="12" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G18" s="12" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G19" s="12" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G20" s="12" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G21" s="12" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G22" s="12" t="s">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G23" s="12" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G24" s="12" t="s">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G25" s="12" t="s">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G26" s="12" t="s">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G27" s="12" t="s">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G28" s="12" t="s">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11" t="s">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G29" s="12" t="s">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G30" s="12" t="s">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G31" s="12" t="s">
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11" t="s">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G32" s="12" t="s">
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G32" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11" t="s">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G33" s="10"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G34" s="10"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11" t="s">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="11">
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7">
         <v>1.3</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11" t="s">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="11">
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7">
         <v>1.2</v>
       </c>
-      <c r="G36" s="10"/>
+      <c r="G36" s="7"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G37" s="12" t="s">
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11" t="s">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="11">
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7">
         <v>1.3</v>
       </c>
-      <c r="G38" s="10"/>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G39" s="12" t="s">
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11" t="s">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G40" s="12" t="s">
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11" t="s">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="11">
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7">
         <v>1.4</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11" t="s">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="11">
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7">
         <v>1.4</v>
       </c>
-      <c r="G42" s="10"/>
+      <c r="G42" s="7"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11" t="s">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G43" s="12" t="s">
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G43" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11" t="s">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="11">
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7">
         <v>1.4</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="G44" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G45" s="12" t="s">
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G45" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11" t="s">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G46" s="10"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G46" s="7"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11" t="s">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G47" s="10"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G47" s="7"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11" t="s">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G48" s="10"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G48" s="7"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11" t="s">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G49" s="10"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G49" s="7"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="10"/>
-      <c r="B50" s="11" t="s">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G50" s="10"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G50" s="7"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="10"/>
-      <c r="B51" s="11" t="s">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G51" s="10"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G51" s="7"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="10"/>
-      <c r="B52" s="11" t="s">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="11">
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7">
         <v>1.5</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G52" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="10"/>
-      <c r="B53" s="11" t="s">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="11">
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7">
         <v>1.5</v>
       </c>
-      <c r="G53" s="10"/>
+      <c r="G53" s="7"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="10"/>
-      <c r="B54" s="11" t="s">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G54" s="12" t="s">
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G54" s="8" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="10"/>
-      <c r="B55" s="11" t="s">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="11">
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7">
         <v>1.5</v>
       </c>
-      <c r="G55" s="10"/>
+      <c r="G55" s="7"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
+      <c r="A56" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="G56" s="7"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="G57" s="7"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
     </row>
     <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
     </row>
     <row r="79" ht="14.25" customHeight="1">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
     </row>
     <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
     </row>
     <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
     </row>
     <row r="82" ht="14.25" customHeight="1">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
     </row>
     <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
     </row>
     <row r="84" ht="14.25" customHeight="1">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
     </row>
     <row r="85" ht="14.25" customHeight="1">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
     </row>
     <row r="86" ht="14.25" customHeight="1">
-      <c r="A86" s="10"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
     </row>
     <row r="87" ht="14.25" customHeight="1">
-      <c r="A87" s="10"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
     </row>
     <row r="88" ht="14.25" customHeight="1">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
     </row>
     <row r="89" ht="14.25" customHeight="1">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
     </row>
     <row r="90" ht="14.25" customHeight="1">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
     </row>
     <row r="91" ht="14.25" customHeight="1">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
     </row>
     <row r="92" ht="14.25" customHeight="1">
-      <c r="A92" s="10"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
     </row>
     <row r="93" ht="14.25" customHeight="1">
-      <c r="A93" s="10"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
     </row>
     <row r="94" ht="14.25" customHeight="1">
-      <c r="A94" s="10"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
     </row>
     <row r="95" ht="14.25" customHeight="1">
-      <c r="A95" s="10"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
     </row>
     <row r="96" ht="14.25" customHeight="1">
-      <c r="A96" s="10"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
     </row>
     <row r="97" ht="14.25" customHeight="1">
-      <c r="A97" s="10"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
     </row>
     <row r="98" ht="14.25" customHeight="1"/>
     <row r="99" ht="14.25" customHeight="1"/>
@@ -2977,11 +3037,15 @@
     <hyperlink r:id="rId36" ref="G45"/>
     <hyperlink r:id="rId37" location="gid=1290689837" ref="G52"/>
     <hyperlink r:id="rId38" ref="G54"/>
+    <hyperlink r:id="rId39" location="gid=420254295" ref="G58"/>
+    <hyperlink r:id="rId40" location="gid=483070094" ref="G59"/>
+    <hyperlink r:id="rId41" ref="G60"/>
+    <hyperlink r:id="rId42" ref="G61"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId39"/>
+  <drawing r:id="rId43"/>
 </worksheet>
 </file>
 
@@ -3023,11 +3087,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>110</v>
+      <c r="A2" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2">
         <v>45877.0</v>
@@ -3035,19 +3099,19 @@
       <c r="D2" s="2">
         <v>45881.0</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>1.1</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>112</v>
+      <c r="F2" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>113</v>
+      <c r="A3" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2">
         <v>45877.0</v>
@@ -3055,123 +3119,123 @@
       <c r="D3" s="2">
         <v>45881.0</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>1.1</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>114</v>
+      <c r="F3" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>110</v>
+      <c r="A4" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="15">
+        <v>118</v>
+      </c>
+      <c r="C4" s="11">
         <v>45999.0</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="2">
         <v>45999.0</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>1.2</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>112</v>
+      <c r="F4" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>113</v>
+      <c r="A5" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>1.2</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>114</v>
+      <c r="F5" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>110</v>
+      <c r="A6" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="6">
+        <v>118</v>
+      </c>
+      <c r="C6" s="2">
         <v>45894.0</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="2">
         <v>45894.0</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>1.3</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>112</v>
+      <c r="F6" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>113</v>
+      <c r="A7" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>1.3</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>114</v>
+      <c r="F7" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>110</v>
+      <c r="A8" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="6">
+        <v>118</v>
+      </c>
+      <c r="C8" s="2">
         <v>45909.0</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="2">
         <v>45909.0</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>1.4</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>112</v>
+      <c r="F8" s="12" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>113</v>
+      <c r="A9" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="6">
+        <v>118</v>
+      </c>
+      <c r="C9" s="2">
         <v>45909.0</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="2">
         <v>45909.0</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>1.4</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>114</v>
+      <c r="F9" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/assets/docs/Maestro_de_Documento.xlsx
+++ b/assets/docs/Maestro_de_Documento.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="143">
   <si>
     <t>Fase</t>
   </si>
@@ -259,6 +259,9 @@
     <t>Diagrama de Clase</t>
   </si>
   <si>
+    <t>https://docs.google.com/spreadsheets/d/1FWtU9hSLxstk-De1OQQQcv1uZ_Cow20m/edit?gid=420254295#gid=420254295</t>
+  </si>
+  <si>
     <t>Script Requirimientos</t>
   </si>
   <si>
@@ -358,16 +361,13 @@
     <t>Excel Plan de Pruebas Unitarias</t>
   </si>
   <si>
-    <t>https://docs.google.com/spreadsheets/d/1FWtU9hSLxstk-De1OQQQcv1uZ_Cow20m/edit?gid=420254295#gid=420254295</t>
-  </si>
-  <si>
     <t>https://docs.google.com/spreadsheets/d/1IbARxuTeOY2qWEzCasl3rCnB_irvc6KH/edit?gid=483070094#gid=483070094</t>
   </si>
   <si>
     <t>Documento Final 6</t>
   </si>
   <si>
-    <t>https://docs.google.com/presentation/d/1URD1RMH1CQzSUltUoWrTL-RXCT0zOykF/edit?usp=drive_web&amp;ouid=114709403431522966334&amp;rtpof=true</t>
+    <t>https://docs.google.com/presentation/d/1SqI0-ADjNS4zo9iM470-Z08GXDwPEKKa/edit?slide=id.p1#slide=id.p1</t>
   </si>
   <si>
     <t>Bitacora Individual()</t>
@@ -377,6 +377,63 @@
   </si>
   <si>
     <t>https://docs.google.com/document/d/1AM51YULd7YGRPrGdpB-c4GOUy7bbiO_U/edit?rtpof=true</t>
+  </si>
+  <si>
+    <t>Script_Implementacion</t>
+  </si>
+  <si>
+    <t>Script de Implementacion</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1RB2JJJGpvg9P1eoHsDaMb3URIU6QSS71/edit</t>
+  </si>
+  <si>
+    <t>Prueba</t>
+  </si>
+  <si>
+    <t>Plantilla de casos de prueba</t>
+  </si>
+  <si>
+    <t>Plantillas de casos de prueba</t>
+  </si>
+  <si>
+    <t>Plantilla Plan de Pruebas</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1nEgx9t3Tt-WEK8B456zeF4q7_TmTBsap/edit</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1FWtU9hSLxstk-De1OQQQcv1uZ_Cow20m/edit?gid=1290689837#gid=1290689837</t>
+  </si>
+  <si>
+    <t>Log_Defectos</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1AM51YULd7YGRPrGdpB-c4GOUy7bbiO_U/edit</t>
+  </si>
+  <si>
+    <t>Documento Final 7</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1JgHxilFu17d4vRYawORBQOZ89Ljt4gGj/edit?slide=id.p1#slide=id.p1</t>
+  </si>
+  <si>
+    <t>Script_Pruebas</t>
+  </si>
+  <si>
+    <t>Script de Pruebas</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1oDwuTLOf_Vms98G81Lf-XHYJksPPd40C/edit</t>
+  </si>
+  <si>
+    <t>PostMortem</t>
+  </si>
+  <si>
+    <t>Documento Final 8</t>
+  </si>
+  <si>
+    <t>Script PostMortem</t>
   </si>
   <si>
     <t>Bitacora_Tiempo_Nicolas</t>
@@ -398,7 +455,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -443,6 +500,16 @@
     </font>
     <font>
       <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11.0"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -476,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -496,8 +563,14 @@
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1332,7 +1405,7 @@
       <c r="F34" s="7">
         <v>1.0</v>
       </c>
-      <c r="G34" s="7"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="7"/>
@@ -1347,8 +1420,8 @@
       <c r="F35" s="7">
         <v>1.3</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>22</v>
+      <c r="G35" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
@@ -1369,10 +1442,10 @@
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="7"/>
       <c r="B37" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -1380,13 +1453,13 @@
         <v>1.0</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="7"/>
       <c r="B38" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>24</v>
@@ -1400,13 +1473,13 @@
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -1414,16 +1487,16 @@
         <v>1.0</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -1431,7 +1504,7 @@
         <v>1.0</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
@@ -1440,7 +1513,7 @@
         <v>20</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -1464,15 +1537,17 @@
       <c r="F42" s="7">
         <v>1.4</v>
       </c>
-      <c r="G42" s="7"/>
+      <c r="G42" s="10" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="7"/>
       <c r="B43" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -1480,13 +1555,13 @@
         <v>1.0</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="7"/>
       <c r="B44" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>24</v>
@@ -1497,18 +1572,18 @@
         <v>1.4</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -1516,16 +1591,16 @@
         <v>1.0</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="7"/>
       <c r="B46" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -1537,10 +1612,10 @@
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="7"/>
       <c r="B47" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -1552,10 +1627,10 @@
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="7"/>
       <c r="B48" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -1567,10 +1642,10 @@
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="7"/>
       <c r="B49" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -1582,10 +1657,10 @@
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="7"/>
       <c r="B50" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
@@ -1597,10 +1672,10 @@
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="7"/>
       <c r="B51" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
@@ -1615,7 +1690,7 @@
         <v>20</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
@@ -1644,10 +1719,10 @@
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="7"/>
       <c r="B54" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
@@ -1655,13 +1730,13 @@
         <v>1.0</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="7"/>
       <c r="B55" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>24</v>
@@ -1675,13 +1750,13 @@
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
@@ -1693,10 +1768,10 @@
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="7"/>
       <c r="B57" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -1711,7 +1786,7 @@
         <v>20</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -1719,7 +1794,7 @@
         <v>1.6</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
@@ -1774,138 +1849,240 @@
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
+      <c r="F62" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
+      <c r="A63" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
+      <c r="F63" s="9">
+        <v>1.0</v>
+      </c>
       <c r="G63" s="7"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
+      <c r="B64" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
+      <c r="F64" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
+      <c r="B65" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
+      <c r="F65" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
+      <c r="B66" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
+      <c r="F66" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
+      <c r="B67" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
+      <c r="F67" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
+      <c r="B68" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
+      <c r="F68" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
+      <c r="B69" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
+      <c r="F69" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
+      <c r="A70" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
+      <c r="B72" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
+      <c r="F72" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
+      <c r="B73" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
+      <c r="F73" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="74" ht="14.25" customHeight="1">
       <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
+      <c r="B74" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
+      <c r="F74" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
+      <c r="B75" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
+      <c r="F75" s="9">
+        <v>1.8</v>
+      </c>
       <c r="G75" s="7"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
+      <c r="B76" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
+      <c r="F76" s="9">
+        <v>1.0</v>
+      </c>
       <c r="G76" s="7"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
@@ -3027,25 +3204,36 @@
     <hyperlink r:id="rId26" location="heading=h.8qnhu9772rdi" ref="G30"/>
     <hyperlink r:id="rId27" location="heading=h.26i9zaua4334" ref="G31"/>
     <hyperlink r:id="rId28" location="heading=h.gu8r0f4nas6k" ref="G32"/>
-    <hyperlink r:id="rId29" location="gid=1290689837" ref="G35"/>
+    <hyperlink r:id="rId29" location="gid=420254295" ref="G35"/>
     <hyperlink r:id="rId30" ref="G37"/>
     <hyperlink r:id="rId31" ref="G39"/>
     <hyperlink r:id="rId32" location="heading=h.k034iv6tw88a" ref="G40"/>
     <hyperlink r:id="rId33" location="gid=1290689837" ref="G41"/>
-    <hyperlink r:id="rId34" ref="G43"/>
-    <hyperlink r:id="rId35" location="slide=id.p1" ref="G44"/>
-    <hyperlink r:id="rId36" ref="G45"/>
-    <hyperlink r:id="rId37" location="gid=1290689837" ref="G52"/>
-    <hyperlink r:id="rId38" ref="G54"/>
-    <hyperlink r:id="rId39" location="gid=420254295" ref="G58"/>
-    <hyperlink r:id="rId40" location="gid=483070094" ref="G59"/>
-    <hyperlink r:id="rId41" ref="G60"/>
-    <hyperlink r:id="rId42" ref="G61"/>
+    <hyperlink r:id="rId34" location="gid=420254295" ref="G42"/>
+    <hyperlink r:id="rId35" ref="G43"/>
+    <hyperlink r:id="rId36" location="slide=id.p1" ref="G44"/>
+    <hyperlink r:id="rId37" ref="G45"/>
+    <hyperlink r:id="rId38" location="gid=1290689837" ref="G52"/>
+    <hyperlink r:id="rId39" ref="G54"/>
+    <hyperlink r:id="rId40" location="gid=420254295" ref="G58"/>
+    <hyperlink r:id="rId41" location="gid=483070094" ref="G59"/>
+    <hyperlink r:id="rId42" location="slide=id.p1" ref="G60"/>
+    <hyperlink r:id="rId43" ref="G61"/>
+    <hyperlink r:id="rId44" ref="G62"/>
+    <hyperlink r:id="rId45" ref="G64"/>
+    <hyperlink r:id="rId46" location="gid=1290689837" ref="G65"/>
+    <hyperlink r:id="rId47" location="gid=483070094" ref="G66"/>
+    <hyperlink r:id="rId48" ref="G67"/>
+    <hyperlink r:id="rId49" location="slide=id.p1" ref="G68"/>
+    <hyperlink r:id="rId50" ref="G69"/>
+    <hyperlink r:id="rId51" location="gid=1290689837" ref="G72"/>
+    <hyperlink r:id="rId52" location="gid=483070094" ref="G73"/>
+    <hyperlink r:id="rId53" ref="G74"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId43"/>
+  <drawing r:id="rId54"/>
 </worksheet>
 </file>
 
@@ -3088,7 +3276,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>118</v>
@@ -3103,12 +3291,12 @@
         <v>1.1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>118</v>
@@ -3123,17 +3311,17 @@
         <v>1.1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="13">
         <v>45999.0</v>
       </c>
       <c r="D4" s="2">
@@ -3143,12 +3331,12 @@
         <v>1.2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>118</v>
@@ -3159,12 +3347,12 @@
         <v>1.2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>118</v>
@@ -3179,12 +3367,12 @@
         <v>1.3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>118</v>
@@ -3195,12 +3383,12 @@
         <v>1.3</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>118</v>
@@ -3214,13 +3402,13 @@
       <c r="E8" s="1">
         <v>1.4</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>121</v>
+      <c r="F8" s="14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>118</v>
@@ -3235,7 +3423,7 @@
         <v>1.4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/assets/docs/Maestro_de_Documento.xlsx
+++ b/assets/docs/Maestro_de_Documento.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="149">
   <si>
     <t>Fase</t>
   </si>
@@ -430,10 +430,28 @@
     <t>PostMortem</t>
   </si>
   <si>
+    <t>Documento Informe de Postmortem</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1OWyhxi6Bny9KFLvQ-wiQZ47Z0lInYwMR/edit</t>
+  </si>
+  <si>
+    <t>Presentacion de Postmortem</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/15m1lzO3QwbPy_H-26bncJgXML3eypgjC/edit?slide=id.p1#slide=id.p1</t>
+  </si>
+  <si>
     <t>Documento Final 8</t>
   </si>
   <si>
+    <t>https://docs.google.com/presentation/d/1kmsYNdEEcKwVV_elSitrGORZY8bFhOOy/edit?slide=id.p1#slide=id.p1</t>
+  </si>
+  <si>
     <t>Script PostMortem</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/16i7bdTNgq-0p933qcujEAMTmaG2EOq1c/edit</t>
   </si>
   <si>
     <t>Bitacora_Tiempo_Nicolas</t>
@@ -455,7 +473,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -511,6 +529,12 @@
     <font>
       <u/>
       <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
@@ -543,7 +567,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -569,8 +593,11 @@
     <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1988,21 +2015,33 @@
       <c r="A70" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B70" s="9"/>
+      <c r="B70" s="9" t="s">
+        <v>137</v>
+      </c>
       <c r="C70" s="9"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
+      <c r="F70" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="7"/>
-      <c r="B71" s="9"/>
+      <c r="B71" s="9" t="s">
+        <v>139</v>
+      </c>
       <c r="C71" s="9"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
+      <c r="F71" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="7"/>
@@ -2058,7 +2097,7 @@
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="7"/>
       <c r="B75" s="9" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>24</v>
@@ -2068,22 +2107,26 @@
       <c r="F75" s="9">
         <v>1.8</v>
       </c>
-      <c r="G75" s="7"/>
+      <c r="G75" s="11" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="A76" s="7"/>
       <c r="B76" s="9" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="9">
         <v>1.0</v>
       </c>
-      <c r="G76" s="7"/>
+      <c r="G76" s="10" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="A77" s="7"/>
@@ -3226,14 +3269,18 @@
     <hyperlink r:id="rId48" ref="G67"/>
     <hyperlink r:id="rId49" location="slide=id.p1" ref="G68"/>
     <hyperlink r:id="rId50" ref="G69"/>
-    <hyperlink r:id="rId51" location="gid=1290689837" ref="G72"/>
-    <hyperlink r:id="rId52" location="gid=483070094" ref="G73"/>
-    <hyperlink r:id="rId53" ref="G74"/>
+    <hyperlink r:id="rId51" ref="G70"/>
+    <hyperlink r:id="rId52" location="slide=id.p1" ref="G71"/>
+    <hyperlink r:id="rId53" location="gid=1290689837" ref="G72"/>
+    <hyperlink r:id="rId54" location="gid=483070094" ref="G73"/>
+    <hyperlink r:id="rId55" ref="G74"/>
+    <hyperlink r:id="rId56" location="slide=id.p1" ref="G75"/>
+    <hyperlink r:id="rId57" ref="G76"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId54"/>
+  <drawing r:id="rId58"/>
 </worksheet>
 </file>
 
@@ -3276,7 +3323,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>118</v>
@@ -3291,12 +3338,12 @@
         <v>1.1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>118</v>
@@ -3311,17 +3358,17 @@
         <v>1.1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="14">
         <v>45999.0</v>
       </c>
       <c r="D4" s="2">
@@ -3331,12 +3378,12 @@
         <v>1.2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>118</v>
@@ -3347,12 +3394,12 @@
         <v>1.2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>118</v>
@@ -3367,12 +3414,12 @@
         <v>1.3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>118</v>
@@ -3383,12 +3430,12 @@
         <v>1.3</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>118</v>
@@ -3402,13 +3449,13 @@
       <c r="E8" s="1">
         <v>1.4</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>140</v>
+      <c r="F8" s="15" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>118</v>
@@ -3423,7 +3470,7 @@
         <v>1.4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/assets/docs/Maestro_de_Documento.xlsx
+++ b/assets/docs/Maestro_de_Documento.xlsx
@@ -4,20 +4,19 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Hoja1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Bitacoras" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="45POIktfWICxIyOKRW63NJhHsbBlOVvwgWr5wbcQosI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="oQ5rnAA0bXGH/UsCE2L8E4lNezh4L9oPg3Y317Z+EW8="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="157">
   <si>
     <t>Fase</t>
   </si>
@@ -94,6 +93,24 @@
     <t>Documento final</t>
   </si>
   <si>
+    <t>Bitacora Individual()</t>
+  </si>
+  <si>
+    <t>Bitacora Individual</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1AM51YULd7YGRPrGdpB-c4GOUy7bbiO_U/edit</t>
+  </si>
+  <si>
+    <t>Documento Revision y Correcion</t>
+  </si>
+  <si>
+    <t>Revision y correcion</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1yFTkyZJfuHNjnSkRuC2bqX_JnPk1qmo6/edit</t>
+  </si>
+  <si>
     <t>Estrategia</t>
   </si>
   <si>
@@ -133,6 +150,9 @@
     <t>https://docs.google.com/document/d/1q_JjIIFExi2pQm1OXj_RZZ3I_sTpTY1V/edit</t>
   </si>
   <si>
+    <t>https://docs.google.com/document/d/16hPjyOjOO8oV9Brvit1uk_ZI3dh-QA5H/edit</t>
+  </si>
+  <si>
     <t>Requirimientos</t>
   </si>
   <si>
@@ -274,6 +294,9 @@
     <t>Documento final 3</t>
   </si>
   <si>
+    <t>https://docs.google.com/document/d/1f_s901M_bqBjR3F4ipGmhY-VuilyUUOi/edit</t>
+  </si>
+  <si>
     <t>Planeacion</t>
   </si>
   <si>
@@ -283,9 +306,6 @@
     <t>Especificacion detallada tareas</t>
   </si>
   <si>
-    <t>https://docs.google.com/document/d/1f_s901M_bqBjR3F4ipGmhY-VuilyUUOi/edit</t>
-  </si>
-  <si>
     <t>Plan de calidad</t>
   </si>
   <si>
@@ -310,6 +330,12 @@
     <t>https://docs.google.com/presentation/d/1HEw2FzIokamEOgevFfXf2YQcVCd7bEm-/edit?slide=id.p1#slide=id.p1</t>
   </si>
   <si>
+    <t>Documento revision y Correcion</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1_5tfdchGdJbxvkbZU7WfVdDGeippl275/edit</t>
+  </si>
+  <si>
     <t>Diseño</t>
   </si>
   <si>
@@ -352,6 +378,9 @@
     <t>Documento final 5</t>
   </si>
   <si>
+    <t>https://docs.google.com/document/d/1EVUwgZz9-fPWXiAnPNEV-YiatJb2emPP/edit</t>
+  </si>
+  <si>
     <t>Implementacion</t>
   </si>
   <si>
@@ -370,9 +399,6 @@
     <t>https://docs.google.com/presentation/d/1SqI0-ADjNS4zo9iM470-Z08GXDwPEKKa/edit?slide=id.p1#slide=id.p1</t>
   </si>
   <si>
-    <t>Bitacora Individual()</t>
-  </si>
-  <si>
     <t>Bitacora</t>
   </si>
   <si>
@@ -388,6 +414,9 @@
     <t>https://docs.google.com/document/d/1RB2JJJGpvg9P1eoHsDaMb3URIU6QSS71/edit</t>
   </si>
   <si>
+    <t>https://docs.google.com/document/d/1GfjQWcfCSfZpw1UAX7KOvX4Ax6EeJA1D/edit</t>
+  </si>
+  <si>
     <t>Prueba</t>
   </si>
   <si>
@@ -409,9 +438,6 @@
     <t>Log_Defectos</t>
   </si>
   <si>
-    <t>https://docs.google.com/document/d/1AM51YULd7YGRPrGdpB-c4GOUy7bbiO_U/edit</t>
-  </si>
-  <si>
     <t>Documento Final 7</t>
   </si>
   <si>
@@ -433,12 +459,18 @@
     <t>Documento Informe de Postmortem</t>
   </si>
   <si>
+    <t>Informe</t>
+  </si>
+  <si>
     <t>https://docs.google.com/document/d/1OWyhxi6Bny9KFLvQ-wiQZ47Z0lInYwMR/edit</t>
   </si>
   <si>
     <t>Presentacion de Postmortem</t>
   </si>
   <si>
+    <t>Presentacion</t>
+  </si>
+  <si>
     <t>https://docs.google.com/presentation/d/15m1lzO3QwbPy_H-26bncJgXML3eypgjC/edit?slide=id.p1#slide=id.p1</t>
   </si>
   <si>
@@ -454,26 +486,14 @@
     <t>https://docs.google.com/document/d/16i7bdTNgq-0p933qcujEAMTmaG2EOq1c/edit</t>
   </si>
   <si>
-    <t>Bitacora_Tiempo_Nicolas</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/document/d/1dvc9DgpfgTd8wvz5caS2-DtgVCq4ESe2/edit</t>
-  </si>
-  <si>
-    <t>Bitacora_Tiempo_Desarrollo</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/spreadsheets/d/1VhFUXI1XNs_mM699UxJR4wNlpm7B1_Ex9XuUiskOWKM/edit?gid=0#gid=0</t>
+    <t>https://docs.google.com/document/d/1E_8H3WSh_a_kwZtwRAoAenqvmkHimTW3/edit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
-  </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -504,38 +524,54 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
+      <sz val="11.0"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
       <sz val="11.0"/>
       <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -567,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -575,29 +611,59 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="14" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -609,10 +675,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -980,444 +1042,446 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G9" s="3" t="s">
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10">
         <v>1.1</v>
       </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10">
         <v>1.2</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G13" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="6" t="s">
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10">
         <v>1.2</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="G14" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10">
         <v>1.2</v>
       </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G16" s="8" t="s">
+      <c r="F16" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>40</v>
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>45</v>
+      <c r="F17" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>40</v>
+      <c r="A18" s="7"/>
+      <c r="B18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G18" s="8" t="s">
+      <c r="F18" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G19" s="8" t="s">
+      <c r="F19" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>40</v>
+      <c r="C20" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>51</v>
+      <c r="F20" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>54</v>
+      <c r="F21" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>56</v>
+      <c r="F22" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>58</v>
+      <c r="F23" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>60</v>
+      <c r="F24" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="7"/>
       <c r="B25" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>62</v>
+      <c r="F25" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>64</v>
+      <c r="F26" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="7"/>
       <c r="B27" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>67</v>
+      <c r="F27" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>69</v>
+      <c r="F28" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="7"/>
       <c r="B29" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>71</v>
+      <c r="F29" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="7"/>
       <c r="B30" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>73</v>
+      <c r="F30" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="7"/>
       <c r="B31" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>75</v>
+      <c r="F31" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="7"/>
       <c r="B32" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>77</v>
+      <c r="F32" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="7"/>
       <c r="B33" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G33" s="7"/>
+      <c r="F33" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="7"/>
@@ -1425,897 +1489,1026 @@
         <v>79</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G34" s="9"/>
+      <c r="F34" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="7"/>
       <c r="B35" s="7" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="7">
-        <v>1.3</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>80</v>
+      <c r="F35" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="7"/>
       <c r="B36" s="7" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="G36" s="7"/>
+      <c r="F36" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="7"/>
       <c r="B37" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>83</v>
-      </c>
+      <c r="F37" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G37" s="17"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="7"/>
       <c r="B38" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="7">
-        <v>1.3</v>
+      <c r="F38" s="10">
+        <v>1.0</v>
       </c>
       <c r="G38" s="7"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="A39" s="7"/>
       <c r="B39" s="7" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>88</v>
+      <c r="F39" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
-      <c r="F40" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="F40" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G40" s="7"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="7"/>
       <c r="B41" s="7" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
-      <c r="F41" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>22</v>
+      <c r="F41" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="7"/>
       <c r="B42" s="7" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>80</v>
-      </c>
+      <c r="F42" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="G42" s="7"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="7"/>
-      <c r="B43" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>93</v>
+      <c r="B43" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
-      <c r="F43" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>94</v>
+      <c r="F43" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="7"/>
-      <c r="B44" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>24</v>
+      <c r="B44" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>96</v>
+      <c r="F44" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>99</v>
+      <c r="F45" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="7"/>
       <c r="B46" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
-      <c r="F46" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G46" s="7"/>
+      <c r="F46" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="7"/>
       <c r="B47" s="7" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
-      <c r="F47" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G47" s="7"/>
+      <c r="F47" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="7"/>
       <c r="B48" s="7" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
-      <c r="F48" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G48" s="7"/>
+      <c r="F48" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="7"/>
       <c r="B49" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
-      <c r="F49" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G49" s="7"/>
+      <c r="F49" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="7"/>
       <c r="B50" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
-      <c r="F50" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G50" s="7"/>
+      <c r="F50" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="7"/>
-      <c r="B51" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>101</v>
+      <c r="B51" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
-      <c r="F51" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G51" s="7"/>
+      <c r="F51" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="7"/>
-      <c r="B52" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>91</v>
+      <c r="B52" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
-      <c r="F52" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>22</v>
+      <c r="F52" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="7"/>
+      <c r="A53" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="B53" s="7" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
-      <c r="F53" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="G53" s="7"/>
+      <c r="F53" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="7"/>
       <c r="B54" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
-      <c r="F54" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>109</v>
-      </c>
+      <c r="F54" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G54" s="7"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="7"/>
       <c r="B55" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
-      <c r="F55" s="7">
-        <v>1.5</v>
+      <c r="F55" s="10">
+        <v>1.0</v>
       </c>
       <c r="G55" s="7"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B56" s="9" t="s">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>112</v>
+      <c r="C56" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
-      <c r="F56" s="9">
+      <c r="F56" s="10">
         <v>1.0</v>
       </c>
       <c r="G56" s="7"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="7"/>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>113</v>
+      <c r="C57" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
-      <c r="F57" s="9">
+      <c r="F57" s="10">
         <v>1.0</v>
       </c>
       <c r="G57" s="7"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="7"/>
-      <c r="B58" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>91</v>
+      <c r="B58" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
-      <c r="F58" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>80</v>
-      </c>
+      <c r="F58" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G58" s="7"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="7"/>
-      <c r="B59" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>18</v>
+      <c r="B59" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
-      <c r="F59" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>114</v>
-      </c>
+      <c r="F59" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G59" s="7"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="7"/>
-      <c r="B60" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>24</v>
+      <c r="A60" s="17"/>
+      <c r="B60" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
-      <c r="F60" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>116</v>
+      <c r="F60" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="7"/>
-      <c r="B61" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>118</v>
+      <c r="B61" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
-      <c r="F61" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>119</v>
-      </c>
+      <c r="F61" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="G61" s="7"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>121</v>
+      <c r="A62" s="7"/>
+      <c r="B62" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>117</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
-      <c r="F62" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>122</v>
+      <c r="F62" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>125</v>
+      <c r="B63" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G63" s="7"/>
+      <c r="F63" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="G63" s="17"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="7"/>
-      <c r="B64" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>126</v>
+      <c r="B64" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
-      <c r="F64" s="9">
+      <c r="F64" s="14">
         <v>1.0</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="7"/>
-      <c r="B65" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>91</v>
+      <c r="B65" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
-      <c r="F65" s="9">
-        <v>1.7</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>128</v>
+      <c r="F65" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="7"/>
-      <c r="B66" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>18</v>
+      <c r="A66" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
-      <c r="F66" s="9">
-        <v>1.7</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>114</v>
-      </c>
+      <c r="F66" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="G66" s="17"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="7"/>
-      <c r="B67" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>118</v>
+      <c r="A67" s="17"/>
+      <c r="B67" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>123</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
-      <c r="F67" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>130</v>
-      </c>
+      <c r="F67" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="G67" s="17"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="7"/>
-      <c r="B68" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>24</v>
+      <c r="A68" s="17"/>
+      <c r="B68" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="9">
-        <v>1.7</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>132</v>
+      <c r="F68" s="18">
+        <v>1.6</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="7"/>
-      <c r="B69" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>134</v>
+      <c r="B69" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
-      <c r="F69" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>135</v>
+      <c r="F69" s="18">
+        <v>1.6</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C70" s="9"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
-      <c r="F70" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>138</v>
+      <c r="F70" s="18">
+        <v>1.6</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="7"/>
-      <c r="B71" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C71" s="9"/>
+      <c r="B71" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>127</v>
+      </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
-      <c r="F71" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>140</v>
+      <c r="F71" s="18">
+        <v>1.6</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="7"/>
-      <c r="B72" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>91</v>
+      <c r="B72" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
-      <c r="F72" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>128</v>
+      <c r="F72" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="7"/>
-      <c r="B73" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>18</v>
+      <c r="B73" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
-      <c r="F73" s="9">
-        <v>1.8</v>
+      <c r="F73" s="14">
+        <v>1.0</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1">
       <c r="A74" s="7"/>
-      <c r="B74" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>118</v>
+      <c r="B74" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
-      <c r="F74" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>130</v>
+      <c r="F74" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" s="7"/>
-      <c r="B75" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>24</v>
+      <c r="A75" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>135</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
-      <c r="F75" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>142</v>
-      </c>
+      <c r="F75" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="G75" s="17"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
-      <c r="A76" s="7"/>
-      <c r="B76" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>143</v>
+      <c r="A76" s="17"/>
+      <c r="B76" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>136</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
-      <c r="F76" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>144</v>
+      <c r="F76" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
+      <c r="B77" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>98</v>
+      </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
+      <c r="F77" s="18">
+        <v>1.7</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="78" ht="14.25" customHeight="1">
       <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
+      <c r="B78" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
+      <c r="F78" s="18">
+        <v>1.7</v>
+      </c>
+      <c r="G78" s="16" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="79" ht="14.25" customHeight="1">
       <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
+      <c r="B79" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>127</v>
+      </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
+      <c r="F79" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="80" ht="14.25" customHeight="1">
       <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
+      <c r="B80" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
+      <c r="F80" s="18">
+        <v>1.7</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="81" ht="14.25" customHeight="1">
       <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
+      <c r="B81" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>143</v>
+      </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
+      <c r="F81" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="G81" s="16" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="82" ht="14.25" customHeight="1">
       <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
+      <c r="B82" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
+      <c r="F82" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="G82" s="20" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="83" ht="14.25" customHeight="1">
       <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
+      <c r="B83" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
+      <c r="F83" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G83" s="20" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="84" ht="14.25" customHeight="1">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
+      <c r="A84" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
+      <c r="F84" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G84" s="20" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="85" ht="14.25" customHeight="1">
       <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
+      <c r="B85" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
+      <c r="F85" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="86" ht="14.25" customHeight="1">
       <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
+      <c r="B86" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
+      <c r="F86" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="87" ht="14.25" customHeight="1">
       <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
+      <c r="B87" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
+      <c r="F87" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="88" ht="14.25" customHeight="1">
       <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
+      <c r="B88" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
+      <c r="F88" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="89" ht="14.25" customHeight="1">
       <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
+      <c r="B89" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
+      <c r="F89" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="90" ht="14.25" customHeight="1">
       <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
+      <c r="B90" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>154</v>
+      </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
+      <c r="F90" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="91" ht="14.25" customHeight="1">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
+      <c r="A91" s="21"/>
+      <c r="B91" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G91" s="23" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="92" ht="14.25" customHeight="1">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
+      <c r="A92" s="21"/>
+      <c r="B92" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G92" s="23" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="93" ht="14.25" customHeight="1">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
+      <c r="A93" s="21"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
     </row>
     <row r="94" ht="14.25" customHeight="1">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
+      <c r="A94" s="21"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
     </row>
     <row r="95" ht="14.25" customHeight="1">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
+      <c r="A95" s="21"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
     </row>
     <row r="96" ht="14.25" customHeight="1">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
+      <c r="A96" s="21"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
     </row>
     <row r="97" ht="14.25" customHeight="1">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
+      <c r="A97" s="21"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
     </row>
     <row r="98" ht="14.25" customHeight="1"/>
     <row r="99" ht="14.25" customHeight="1"/>
@@ -3226,264 +3419,76 @@
     <hyperlink r:id="rId5" location="gid=1290689837" ref="G6"/>
     <hyperlink r:id="rId6" ref="G8"/>
     <hyperlink r:id="rId7" ref="G9"/>
-    <hyperlink r:id="rId8" location="gid=1290689837" ref="G11"/>
-    <hyperlink r:id="rId9" ref="G12"/>
-    <hyperlink r:id="rId10" ref="G14"/>
-    <hyperlink r:id="rId11" ref="G15"/>
+    <hyperlink r:id="rId8" ref="G10"/>
+    <hyperlink r:id="rId9" ref="G11"/>
+    <hyperlink r:id="rId10" location="gid=1290689837" ref="G13"/>
+    <hyperlink r:id="rId11" ref="G14"/>
     <hyperlink r:id="rId12" ref="G16"/>
     <hyperlink r:id="rId13" ref="G17"/>
-    <hyperlink r:id="rId14" location="heading=h.hpleuy4twxai" ref="G18"/>
-    <hyperlink r:id="rId15" location="heading=h.hpleuy4twxai" ref="G19"/>
-    <hyperlink r:id="rId16" location="heading=h.hpleuy4twxai" ref="G20"/>
+    <hyperlink r:id="rId14" ref="G18"/>
+    <hyperlink r:id="rId15" ref="G19"/>
+    <hyperlink r:id="rId16" ref="G20"/>
     <hyperlink r:id="rId17" ref="G21"/>
-    <hyperlink r:id="rId18" ref="G22"/>
-    <hyperlink r:id="rId19" ref="G23"/>
-    <hyperlink r:id="rId20" ref="G24"/>
+    <hyperlink r:id="rId18" location="heading=h.hpleuy4twxai" ref="G22"/>
+    <hyperlink r:id="rId19" location="heading=h.hpleuy4twxai" ref="G23"/>
+    <hyperlink r:id="rId20" location="heading=h.hpleuy4twxai" ref="G24"/>
     <hyperlink r:id="rId21" ref="G25"/>
     <hyperlink r:id="rId22" ref="G26"/>
     <hyperlink r:id="rId23" ref="G27"/>
     <hyperlink r:id="rId24" ref="G28"/>
     <hyperlink r:id="rId25" ref="G29"/>
-    <hyperlink r:id="rId26" location="heading=h.8qnhu9772rdi" ref="G30"/>
-    <hyperlink r:id="rId27" location="heading=h.26i9zaua4334" ref="G31"/>
-    <hyperlink r:id="rId28" location="heading=h.gu8r0f4nas6k" ref="G32"/>
-    <hyperlink r:id="rId29" location="gid=420254295" ref="G35"/>
-    <hyperlink r:id="rId30" ref="G37"/>
-    <hyperlink r:id="rId31" ref="G39"/>
-    <hyperlink r:id="rId32" location="heading=h.k034iv6tw88a" ref="G40"/>
-    <hyperlink r:id="rId33" location="gid=1290689837" ref="G41"/>
-    <hyperlink r:id="rId34" location="gid=420254295" ref="G42"/>
+    <hyperlink r:id="rId26" ref="G30"/>
+    <hyperlink r:id="rId27" ref="G31"/>
+    <hyperlink r:id="rId28" ref="G32"/>
+    <hyperlink r:id="rId29" ref="G33"/>
+    <hyperlink r:id="rId30" location="heading=h.8qnhu9772rdi" ref="G34"/>
+    <hyperlink r:id="rId31" location="heading=h.26i9zaua4334" ref="G35"/>
+    <hyperlink r:id="rId32" location="heading=h.gu8r0f4nas6k" ref="G36"/>
+    <hyperlink r:id="rId33" location="gid=420254295" ref="G39"/>
+    <hyperlink r:id="rId34" ref="G41"/>
     <hyperlink r:id="rId35" ref="G43"/>
-    <hyperlink r:id="rId36" location="slide=id.p1" ref="G44"/>
+    <hyperlink r:id="rId36" ref="G44"/>
     <hyperlink r:id="rId37" ref="G45"/>
-    <hyperlink r:id="rId38" location="gid=1290689837" ref="G52"/>
-    <hyperlink r:id="rId39" ref="G54"/>
-    <hyperlink r:id="rId40" location="gid=420254295" ref="G58"/>
-    <hyperlink r:id="rId41" location="gid=483070094" ref="G59"/>
-    <hyperlink r:id="rId42" location="slide=id.p1" ref="G60"/>
-    <hyperlink r:id="rId43" ref="G61"/>
-    <hyperlink r:id="rId44" ref="G62"/>
-    <hyperlink r:id="rId45" ref="G64"/>
-    <hyperlink r:id="rId46" location="gid=1290689837" ref="G65"/>
-    <hyperlink r:id="rId47" location="gid=483070094" ref="G66"/>
-    <hyperlink r:id="rId48" ref="G67"/>
-    <hyperlink r:id="rId49" location="slide=id.p1" ref="G68"/>
-    <hyperlink r:id="rId50" ref="G69"/>
-    <hyperlink r:id="rId51" ref="G70"/>
-    <hyperlink r:id="rId52" location="slide=id.p1" ref="G71"/>
-    <hyperlink r:id="rId53" location="gid=1290689837" ref="G72"/>
-    <hyperlink r:id="rId54" location="gid=483070094" ref="G73"/>
-    <hyperlink r:id="rId55" ref="G74"/>
-    <hyperlink r:id="rId56" location="slide=id.p1" ref="G75"/>
+    <hyperlink r:id="rId38" location="heading=h.k034iv6tw88a" ref="G46"/>
+    <hyperlink r:id="rId39" location="gid=1290689837" ref="G47"/>
+    <hyperlink r:id="rId40" location="gid=420254295" ref="G48"/>
+    <hyperlink r:id="rId41" ref="G49"/>
+    <hyperlink r:id="rId42" location="slide=id.p1" ref="G50"/>
+    <hyperlink r:id="rId43" ref="G51"/>
+    <hyperlink r:id="rId44" ref="G52"/>
+    <hyperlink r:id="rId45" ref="G53"/>
+    <hyperlink r:id="rId46" location="gid=1290689837" ref="G60"/>
+    <hyperlink r:id="rId47" ref="G62"/>
+    <hyperlink r:id="rId48" ref="G64"/>
+    <hyperlink r:id="rId49" ref="G65"/>
+    <hyperlink r:id="rId50" location="gid=420254295" ref="G68"/>
+    <hyperlink r:id="rId51" location="gid=483070094" ref="G69"/>
+    <hyperlink r:id="rId52" location="slide=id.p1" ref="G70"/>
+    <hyperlink r:id="rId53" ref="G71"/>
+    <hyperlink r:id="rId54" ref="G72"/>
+    <hyperlink r:id="rId55" ref="G73"/>
+    <hyperlink r:id="rId56" ref="G74"/>
     <hyperlink r:id="rId57" ref="G76"/>
+    <hyperlink r:id="rId58" location="gid=1290689837" ref="G77"/>
+    <hyperlink r:id="rId59" location="gid=483070094" ref="G78"/>
+    <hyperlink r:id="rId60" ref="G79"/>
+    <hyperlink r:id="rId61" location="slide=id.p1" ref="G80"/>
+    <hyperlink r:id="rId62" ref="G81"/>
+    <hyperlink r:id="rId63" ref="G82"/>
+    <hyperlink r:id="rId64" ref="G83"/>
+    <hyperlink r:id="rId65" ref="G84"/>
+    <hyperlink r:id="rId66" location="slide=id.p1" ref="G85"/>
+    <hyperlink r:id="rId67" location="gid=1290689837" ref="G86"/>
+    <hyperlink r:id="rId68" location="gid=483070094" ref="G87"/>
+    <hyperlink r:id="rId69" ref="G88"/>
+    <hyperlink r:id="rId70" location="slide=id.p1" ref="G89"/>
+    <hyperlink r:id="rId71" ref="G90"/>
+    <hyperlink r:id="rId72" ref="G91"/>
+    <hyperlink r:id="rId73" ref="G92"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId58"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="27.0"/>
-    <col customWidth="1" min="2" max="2" width="26.57"/>
-    <col customWidth="1" min="3" max="3" width="20.43"/>
-    <col customWidth="1" min="4" max="4" width="20.71"/>
-    <col customWidth="1" min="6" max="6" width="102.86"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="2">
-        <v>45877.0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45881.0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1.1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45877.0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45881.0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1.1</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="14">
-        <v>45999.0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>45999.0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="2">
-        <v>45894.0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>45894.0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="2">
-        <v>45909.0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>45909.0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="2">
-        <v>45909.0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>45909.0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
-    <hyperlink r:id="rId2" location="gid=0" ref="F3"/>
-    <hyperlink r:id="rId3" ref="F4"/>
-    <hyperlink r:id="rId4" location="gid=0" ref="F5"/>
-    <hyperlink r:id="rId5" ref="F6"/>
-    <hyperlink r:id="rId6" location="gid=0" ref="F7"/>
-    <hyperlink r:id="rId7" ref="F8"/>
-    <hyperlink r:id="rId8" location="gid=0" ref="F9"/>
-  </hyperlinks>
-  <drawing r:id="rId9"/>
+  <drawing r:id="rId74"/>
 </worksheet>
 </file>
--- a/assets/docs/Maestro_de_Documento.xlsx
+++ b/assets/docs/Maestro_de_Documento.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="171">
   <si>
     <t>Fase</t>
   </si>
@@ -487,13 +487,55 @@
   </si>
   <si>
     <t>https://docs.google.com/document/d/1E_8H3WSh_a_kwZtwRAoAenqvmkHimTW3/edit</t>
+  </si>
+  <si>
+    <t>Fase 2 Iniciacion/Estrategia</t>
+  </si>
+  <si>
+    <t>Script Iniciacion/Estrategia</t>
+  </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1FZeL2aJwuOV36er2c0ukJ75TCr_lW8Su/edit</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1FWtU9hSLxstk-De1OQQQcv1uZ_Cow20m/edit?gid=1810293663#gid=1810293663</t>
+  </si>
+  <si>
+    <t>Informe final Iniciacion/Estrategia</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/15fpu3mqdfj91Iyu9nO-YI6ie_ayGzp_S/edit?slide=id.g39ca7f829a3_0_28#slide=id.g39ca7f829a3_0_28</t>
+  </si>
+  <si>
+    <t>Acta Reunion</t>
+  </si>
+  <si>
+    <t>Acta de reuniones</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/18Khx5feQz3vZF0XRPzZ3xc_DM3NTl3EL/edit</t>
+  </si>
+  <si>
+    <t>Acta de Iniciacion fase 2</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1v43cxT1Jg3MDfaaqG_RAD2kApp7hLz_S/edit</t>
+  </si>
+  <si>
+    <t>Plantilla plan AdminConfiguracion fase 2</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/19E9QiNcSt-NcbuX64onl0LpQWc-pYaUB/edit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -574,6 +616,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -603,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -664,6 +711,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2466,58 +2516,194 @@
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1">
-      <c r="A93" s="21"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="21"/>
+      <c r="A93" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>159</v>
+      </c>
       <c r="D93" s="21"/>
       <c r="E93" s="21"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="21"/>
+      <c r="F93" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G93" s="23" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="94" ht="14.25" customHeight="1">
       <c r="A94" s="21"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="21"/>
+      <c r="B94" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>127</v>
+      </c>
       <c r="D94" s="21"/>
       <c r="E94" s="21"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="21"/>
+      <c r="F94" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G94" s="23" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="95" ht="14.25" customHeight="1">
       <c r="A95" s="21"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="21"/>
+      <c r="B95" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C95" s="22" t="s">
+        <v>18</v>
+      </c>
       <c r="D95" s="21"/>
       <c r="E95" s="21"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="21"/>
+      <c r="F95" s="22">
+        <v>1.9</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="96" ht="14.25" customHeight="1">
       <c r="A96" s="21"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="21"/>
+      <c r="B96" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" s="22" t="s">
+        <v>98</v>
+      </c>
       <c r="D96" s="21"/>
       <c r="E96" s="21"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="21"/>
+      <c r="F96" s="22">
+        <v>1.9</v>
+      </c>
+      <c r="G96" s="23" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="97" ht="14.25" customHeight="1">
       <c r="A97" s="21"/>
-      <c r="B97" s="21"/>
-      <c r="C97" s="21"/>
+      <c r="B97" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>147</v>
+      </c>
       <c r="D97" s="21"/>
       <c r="E97" s="21"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="21"/>
-    </row>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
+      <c r="F97" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G97" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="98" ht="14.25" customHeight="1">
+      <c r="A98" s="21"/>
+      <c r="B98" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C98" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="22">
+        <v>1.1</v>
+      </c>
+      <c r="G98" s="24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="99" ht="14.25" customHeight="1">
+      <c r="A99" s="21"/>
+      <c r="B99" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="22">
+        <v>1.1</v>
+      </c>
+      <c r="G99" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25" customHeight="1">
+      <c r="A100" s="21"/>
+      <c r="B100" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="22">
+        <v>1.1</v>
+      </c>
+      <c r="G100" s="24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25" customHeight="1">
+      <c r="A101" s="21"/>
+      <c r="B101" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="22">
+        <v>1.9</v>
+      </c>
+      <c r="G101" s="21"/>
+    </row>
+    <row r="102" ht="14.25" customHeight="1">
+      <c r="A102" s="21"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+    </row>
+    <row r="103" ht="14.25" customHeight="1">
+      <c r="A103" s="21"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+    </row>
+    <row r="104" ht="14.25" customHeight="1">
+      <c r="A104" s="21"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+    </row>
+    <row r="105" ht="14.25" customHeight="1">
+      <c r="A105" s="21"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+    </row>
     <row r="106" ht="14.25" customHeight="1"/>
     <row r="107" ht="14.25" customHeight="1"/>
     <row r="108" ht="14.25" customHeight="1"/>
@@ -3485,10 +3671,18 @@
     <hyperlink r:id="rId71" ref="G90"/>
     <hyperlink r:id="rId72" ref="G91"/>
     <hyperlink r:id="rId73" ref="G92"/>
+    <hyperlink r:id="rId74" ref="G93"/>
+    <hyperlink r:id="rId75" ref="G94"/>
+    <hyperlink r:id="rId76" location="gid=483070094" ref="G95"/>
+    <hyperlink r:id="rId77" location="gid=1810293663" ref="G96"/>
+    <hyperlink r:id="rId78" location="slide=id.g39ca7f829a3_0_28" ref="G97"/>
+    <hyperlink r:id="rId79" ref="G98"/>
+    <hyperlink r:id="rId80" ref="G99"/>
+    <hyperlink r:id="rId81" ref="G100"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId74"/>
+  <drawing r:id="rId82"/>
 </worksheet>
 </file>
--- a/assets/docs/Maestro_de_Documento.xlsx
+++ b/assets/docs/Maestro_de_Documento.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="200">
   <si>
     <t>Fase</t>
   </si>
@@ -93,6 +93,9 @@
     <t>Documento final</t>
   </si>
   <si>
+    <t>https://docs.google.com/presentation/d/1kStYwZCpq55KsLf6_6biGnqSP3bN3QJM/edit?slide=id.p1#slide=id.p1</t>
+  </si>
+  <si>
     <t>Bitacora Individual()</t>
   </si>
   <si>
@@ -120,6 +123,9 @@
     <t>Definicion Estrategias</t>
   </si>
   <si>
+    <t>25/08/2025</t>
+  </si>
+  <si>
     <t>https://docs.google.com/document/d/1q_JjIIFExi2pQm1OXj_RZZ3I_sTpTY1V/edit?rtpof=true&amp;tab=t.0</t>
   </si>
   <si>
@@ -132,6 +138,9 @@
     <t>https://docs.google.com/document/d/1mSQOeNp9khzt4ZfnDujWq2zsUsd2Fj5_/edit</t>
   </si>
   <si>
+    <t>https://docs.google.com/spreadsheets/d/1IbARxuTeOY2qWEzCasl3rCnB_irvc6KH/edit?gid=483070094#gid=483070094</t>
+  </si>
+  <si>
     <t>Script_definición_de_procesos_2</t>
   </si>
   <si>
@@ -141,15 +150,24 @@
     <t>Documento final 2</t>
   </si>
   <si>
+    <t>https://docs.google.com/presentation/d/1D92IVeBIAR680Ed0CUotZSo9wbR_AOVS/edit?slide=id.p1#slide=id.p1</t>
+  </si>
+  <si>
     <t>Plantilla_AdminConfiguracion</t>
   </si>
   <si>
     <t>Plantilla AdminConfiguracion</t>
   </si>
   <si>
+    <t>8/25/2025</t>
+  </si>
+  <si>
     <t>https://docs.google.com/document/d/1q_JjIIFExi2pQm1OXj_RZZ3I_sTpTY1V/edit</t>
   </si>
   <si>
+    <t>9/23/2025</t>
+  </si>
+  <si>
     <t>https://docs.google.com/document/d/16hPjyOjOO8oV9Brvit1uk_ZI3dh-QA5H/edit</t>
   </si>
   <si>
@@ -180,6 +198,9 @@
     <t>DetalleCasoUso_4_LD</t>
   </si>
   <si>
+    <t>8/26/2025</t>
+  </si>
+  <si>
     <t>https://docs.google.com/document/d/1Jwrwk6gHGDpXYsYvu-5QiM5bYgmKNgNb/edit#heading=h.hpleuy4twxai</t>
   </si>
   <si>
@@ -276,9 +297,18 @@
     <t>Diagrama Caso de Uso</t>
   </si>
   <si>
+    <t>https://docs.google.com/document/d/1pBtG0FdQof5ltMIgdJRGTpuTkyUh55hE/edit</t>
+  </si>
+  <si>
     <t>Diagrama de Clase</t>
   </si>
   <si>
+    <t>10/26/2025</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1PbaqaGehYEgRro0nHSG1RajsKxFWMvX8/edit</t>
+  </si>
+  <si>
     <t>https://docs.google.com/spreadsheets/d/1FWtU9hSLxstk-De1OQQQcv1uZ_Cow20m/edit?gid=420254295#gid=420254295</t>
   </si>
   <si>
@@ -294,6 +324,9 @@
     <t>Documento final 3</t>
   </si>
   <si>
+    <t>https://docs.google.com/presentation/d/1Ow68jEdqHcdB5LRPY7RCC_JO5YLvcYTb/edit?slide=id.p1#slide=id.p1</t>
+  </si>
+  <si>
     <t>https://docs.google.com/document/d/1f_s901M_bqBjR3F4ipGmhY-VuilyUUOi/edit</t>
   </si>
   <si>
@@ -333,6 +366,9 @@
     <t>Documento revision y Correcion</t>
   </si>
   <si>
+    <t>9/22/2025</t>
+  </si>
+  <si>
     <t>https://docs.google.com/document/d/1_5tfdchGdJbxvkbZU7WfVdDGeippl275/edit</t>
   </si>
   <si>
@@ -342,6 +378,9 @@
     <t>Plantilla SDS</t>
   </si>
   <si>
+    <t>9/16/2025</t>
+  </si>
+  <si>
     <t>https://docs.google.com/document/d/1YGTVO3pAUsNR9ZklIIJsp5MZBm8BVsti/edit</t>
   </si>
   <si>
@@ -351,21 +390,39 @@
     <t>Diagrama</t>
   </si>
   <si>
+    <t>https://docs.google.com/document/d/1tLVu_xbKDBy5Ugx0OZFI1kyZsTRyT26s/edit</t>
+  </si>
+  <si>
     <t>Diagrama de Despliegue y Desarrollo</t>
   </si>
   <si>
+    <t>https://docs.google.com/document/d/1RVpb7gljCOUkx_OPgASMuWb9pyyVMQ9U/edit</t>
+  </si>
+  <si>
     <t>Diagrama de informacion</t>
   </si>
   <si>
+    <t>https://docs.google.com/document/d/1B7pZa0Ra8CYsa-lgBAHHLaiiFRMSd6G3/edit</t>
+  </si>
+  <si>
     <t>Diagrama funcional</t>
   </si>
   <si>
+    <t>https://docs.google.com/document/d/1ZNnqAg4rqAL13KCwFdoSIuZCaNeiA7BR/edit</t>
+  </si>
+  <si>
     <t>Diagrama Operacional</t>
   </si>
   <si>
+    <t>https://docs.google.com/document/d/1Zf0S08ZN1KxDUPerZSL_EcJH0Of33eqO/edit</t>
+  </si>
+  <si>
     <t>Diagrama vista de contexto</t>
   </si>
   <si>
+    <t>9/15/2025</t>
+  </si>
+  <si>
     <t>Script_Diseño</t>
   </si>
   <si>
@@ -378,6 +435,12 @@
     <t>Documento final 5</t>
   </si>
   <si>
+    <t>https://docs.google.com/presentation/d/1rakQrJeMtrIIogOF__xngM-xtrmxMv14/edit?slide=id.p1#slide=id.p1</t>
+  </si>
+  <si>
+    <t>9/17/2025</t>
+  </si>
+  <si>
     <t>https://docs.google.com/document/d/1EVUwgZz9-fPWXiAnPNEV-YiatJb2emPP/edit</t>
   </si>
   <si>
@@ -387,10 +450,22 @@
     <t>Plantilla Plan de Implementacion</t>
   </si>
   <si>
+    <t>9/30/2025</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1qfBLTSu6X5C_xRVCZD2i9sL0Y7L4GAvF/edit</t>
+  </si>
+  <si>
     <t>Excel Plan de Pruebas Unitarias</t>
   </si>
   <si>
-    <t>https://docs.google.com/spreadsheets/d/1IbARxuTeOY2qWEzCasl3rCnB_irvc6KH/edit?gid=483070094#gid=483070094</t>
+    <t>https://docs.google.com/spreadsheets/d/1j3MSDyvPkceqm6ggtw2yad3KIyGRnu6K/edit?gid=1400304802#gid=1400304802</t>
+  </si>
+  <si>
+    <t>9/29/2025</t>
+  </si>
+  <si>
+    <t>9/29/205</t>
   </si>
   <si>
     <t>Documento Final 6</t>
@@ -426,6 +501,9 @@
     <t>Plantillas de casos de prueba</t>
   </si>
   <si>
+    <t>https://docs.google.com/document/d/1jLp1tHh93rjs0GxMF5efin1fdVeWIkgW/edit</t>
+  </si>
+  <si>
     <t>Plantilla Plan de Pruebas</t>
   </si>
   <si>
@@ -498,13 +576,16 @@
     <t>Script</t>
   </si>
   <si>
+    <t>10/23/2025</t>
+  </si>
+  <si>
     <t>https://docs.google.com/document/d/1FZeL2aJwuOV36er2c0ukJ75TCr_lW8Su/edit</t>
   </si>
   <si>
     <t>https://docs.google.com/spreadsheets/d/1FWtU9hSLxstk-De1OQQQcv1uZ_Cow20m/edit?gid=1810293663#gid=1810293663</t>
   </si>
   <si>
-    <t>Informe final Iniciacion/Estrategia</t>
+    <t>Documento final Iniciacion/Estrategia</t>
   </si>
   <si>
     <t>https://docs.google.com/presentation/d/15fpu3mqdfj91Iyu9nO-YI6ie_ayGzp_S/edit?slide=id.g39ca7f829a3_0_28#slide=id.g39ca7f829a3_0_28</t>
@@ -528,14 +609,24 @@
     <t>Plantilla plan AdminConfiguracion fase 2</t>
   </si>
   <si>
+    <t>10/24/2025</t>
+  </si>
+  <si>
     <t>https://docs.google.com/document/d/19E9QiNcSt-NcbuX64onl0LpQWc-pYaUB/edit</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/15Usd7ExB9vO74yO7PUUnzwDjQJsxbXSx/edit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="15">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
+  </numFmts>
+  <fonts count="18">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -572,6 +663,11 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="9.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
       <sz val="11.0"/>
       <color rgb="FF0000FF"/>
@@ -594,6 +690,17 @@
       <sz val="11.0"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -630,7 +737,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
     <border>
       <left style="thin">
@@ -646,11 +753,22 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -658,10 +776,13 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="14" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -671,7 +792,7 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -679,20 +800,29 @@
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="2" fillId="0" fontId="11" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -700,20 +830,41 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1089,1620 +1240,2020 @@
       <c r="F7" s="1">
         <v>1.1</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="D8" s="7">
+        <v>45881.0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>45881.0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="10">
+        <v>45937.0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>45937.0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="10">
+        <v>45894.0</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1.1</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="G17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="8" t="s">
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="C18" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7" t="s">
+      <c r="D18" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" customHeight="1">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" customHeight="1">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" customHeight="1">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" customHeight="1">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" customHeight="1">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" customHeight="1">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" customHeight="1">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" customHeight="1">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" customHeight="1">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" customHeight="1">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="13">
+        <v>45909.0</v>
+      </c>
+      <c r="E39" s="13">
+        <v>45909.0</v>
+      </c>
+      <c r="F39" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" customHeight="1">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C40" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
+      <c r="D40" s="13">
+        <v>45903.0</v>
+      </c>
+      <c r="E40" s="13">
+        <v>45903.0</v>
+      </c>
+      <c r="F40" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" customHeight="1">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="13">
+        <v>45903.0</v>
+      </c>
+      <c r="E41" s="13">
+        <v>45903.0</v>
+      </c>
+      <c r="F41" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" customHeight="1">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="13">
+        <v>45909.0</v>
+      </c>
+      <c r="E42" s="13">
+        <v>45909.0</v>
+      </c>
+      <c r="F42" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" customHeight="1">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="13">
+        <v>45909.0</v>
+      </c>
+      <c r="E43" s="13">
+        <v>45909.0</v>
+      </c>
+      <c r="F43" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="A44" s="8"/>
+      <c r="B44" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="A45" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="13">
+        <v>45909.0</v>
+      </c>
+      <c r="E45" s="13">
+        <v>45909.0</v>
+      </c>
+      <c r="F45" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" customHeight="1">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="13">
+        <v>45909.0</v>
+      </c>
+      <c r="E46" s="13">
+        <v>45909.0</v>
+      </c>
+      <c r="F46" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" customHeight="1">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="13">
+        <v>45909.0</v>
+      </c>
+      <c r="E47" s="13">
+        <v>45909.0</v>
+      </c>
+      <c r="F47" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25" customHeight="1">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="13">
+        <v>45909.0</v>
+      </c>
+      <c r="E48" s="13">
+        <v>45909.0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" customHeight="1">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" s="13">
+        <v>45909.0</v>
+      </c>
+      <c r="E49" s="13">
+        <v>45909.0</v>
+      </c>
+      <c r="F49" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" customHeight="1">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="13">
+        <v>45909.0</v>
+      </c>
+      <c r="E50" s="13">
+        <v>45909.0</v>
+      </c>
+      <c r="F50" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" customHeight="1">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="13">
+        <v>45909.0</v>
+      </c>
+      <c r="E51" s="13">
+        <v>45909.0</v>
+      </c>
+      <c r="F51" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25" customHeight="1">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F52" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" customHeight="1">
+      <c r="A53" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25" customHeight="1">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" customHeight="1">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25" customHeight="1">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F56" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25" customHeight="1">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F57" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" customHeight="1">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F58" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" customHeight="1">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F59" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" ht="14.25" customHeight="1">
+      <c r="A60" s="21"/>
+      <c r="B60" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F60" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25" customHeight="1">
+      <c r="A61" s="8"/>
+      <c r="B61" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25" customHeight="1">
+      <c r="A62" s="8"/>
+      <c r="B62" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" customHeight="1">
+      <c r="B63" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25" customHeight="1">
+      <c r="A64" s="8"/>
+      <c r="B64" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F64" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25" customHeight="1">
+      <c r="A65" s="8"/>
+      <c r="B65" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F65" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25" customHeight="1">
+      <c r="A66" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="F66" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25" customHeight="1">
+      <c r="A67" s="21"/>
+      <c r="B67" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="F67" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25" customHeight="1">
+      <c r="A68" s="21"/>
+      <c r="B68" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F68" s="22">
+        <v>1.6</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25" customHeight="1">
+      <c r="A69" s="8"/>
+      <c r="B69" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="F69" s="22">
+        <v>1.6</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25" customHeight="1">
+      <c r="A70" s="8"/>
+      <c r="B70" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="F70" s="22">
+        <v>1.6</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25" customHeight="1">
+      <c r="A71" s="8"/>
+      <c r="B71" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="F71" s="22">
+        <v>1.6</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25" customHeight="1">
+      <c r="A72" s="8"/>
+      <c r="B72" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E72" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F72" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25" customHeight="1">
+      <c r="A73" s="8"/>
+      <c r="B73" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25" customHeight="1">
+      <c r="A74" s="8"/>
+      <c r="B74" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F74" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25" customHeight="1">
+      <c r="A75" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75" s="26">
+        <v>45934.0</v>
+      </c>
+      <c r="E75" s="26">
+        <v>45934.0</v>
+      </c>
+      <c r="F75" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25" customHeight="1">
+      <c r="A76" s="21"/>
+      <c r="B76" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D76" s="27">
+        <v>45934.0</v>
+      </c>
+      <c r="E76" s="27">
+        <v>45934.0</v>
+      </c>
+      <c r="F76" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25" customHeight="1">
+      <c r="A77" s="8"/>
+      <c r="B77" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D77" s="28">
+        <v>45932.0</v>
+      </c>
+      <c r="E77" s="28">
+        <v>45932.0</v>
+      </c>
+      <c r="F77" s="22">
+        <v>1.7</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25" customHeight="1">
+      <c r="A78" s="8"/>
+      <c r="B78" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="28">
+        <v>45932.0</v>
+      </c>
+      <c r="E78" s="28">
+        <v>45932.0</v>
+      </c>
+      <c r="F78" s="22">
+        <v>1.7</v>
+      </c>
+      <c r="G78" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25" customHeight="1">
+      <c r="A79" s="8"/>
+      <c r="B79" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D79" s="29">
+        <v>45932.0</v>
+      </c>
+      <c r="E79" s="29">
+        <v>45932.0</v>
+      </c>
+      <c r="F79" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25" customHeight="1">
+      <c r="A80" s="8"/>
+      <c r="B80" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" s="26">
+        <v>45932.0</v>
+      </c>
+      <c r="E80" s="27">
+        <v>45932.0</v>
+      </c>
+      <c r="F80" s="22">
+        <v>1.7</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25" customHeight="1">
+      <c r="A81" s="8"/>
+      <c r="B81" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" s="27">
+        <v>45935.0</v>
+      </c>
+      <c r="E81" s="27">
+        <v>45935.0</v>
+      </c>
+      <c r="F81" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G81" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25" customHeight="1">
+      <c r="A82" s="8"/>
+      <c r="B82" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82" s="29">
+        <v>45932.0</v>
+      </c>
+      <c r="E82" s="29">
+        <v>45932.0</v>
+      </c>
+      <c r="F82" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="G82" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25" customHeight="1">
+      <c r="A83" s="8"/>
+      <c r="B83" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F83" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G83" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25" customHeight="1">
+      <c r="A84" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D84" s="27">
+        <v>45943.0</v>
+      </c>
+      <c r="E84" s="26">
+        <v>45950.0</v>
+      </c>
+      <c r="F84" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G84" s="31" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25" customHeight="1">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D85" s="27">
+        <v>45944.0</v>
+      </c>
+      <c r="E85" s="27">
+        <v>45944.0</v>
+      </c>
+      <c r="F85" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25" customHeight="1">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D86" s="28">
+        <v>45936.0</v>
+      </c>
+      <c r="E86" s="28">
+        <v>45936.0</v>
+      </c>
+      <c r="F86" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25" customHeight="1">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="28">
+        <v>45936.0</v>
+      </c>
+      <c r="E87" s="28">
+        <v>45936.0</v>
+      </c>
+      <c r="F87" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25" customHeight="1">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D88" s="28">
+        <v>45936.0</v>
+      </c>
+      <c r="E88" s="28">
+        <v>45936.0</v>
+      </c>
+      <c r="F88" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25" customHeight="1">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89" s="27">
+        <v>45943.0</v>
+      </c>
+      <c r="E89" s="27">
+        <v>45943.0</v>
+      </c>
+      <c r="F89" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="G89" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25" customHeight="1">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D90" s="27">
+        <v>45937.0</v>
+      </c>
+      <c r="E90" s="27">
+        <v>45937.0</v>
+      </c>
+      <c r="F90" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25" customHeight="1">
+      <c r="A91" s="32"/>
+      <c r="B91" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" s="28">
+        <v>45936.0</v>
+      </c>
+      <c r="E91" s="28">
+        <v>45936.0</v>
+      </c>
+      <c r="F91" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="G91" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25" customHeight="1">
+      <c r="A92" s="32"/>
+      <c r="B92" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C92" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D92" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E92" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F92" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="G92" s="34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25" customHeight="1">
+      <c r="A93" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="B93" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C93" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="F93" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="G93" s="34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" ht="14.25" customHeight="1">
+      <c r="A94" s="32"/>
+      <c r="B94" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D94" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="E94" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="G94" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25" customHeight="1">
+      <c r="A95" s="32"/>
+      <c r="B95" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C95" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="33">
+        <v>1.9</v>
+      </c>
+      <c r="G95" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" ht="14.25" customHeight="1">
+      <c r="A96" s="32"/>
+      <c r="B96" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D96" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="E96" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" s="33">
+        <v>1.9</v>
+      </c>
+      <c r="G96" s="34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="97" ht="14.25" customHeight="1">
+      <c r="A97" s="32"/>
+      <c r="B97" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="C97" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="D97" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="E97" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="G97" s="34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="98" ht="14.25" customHeight="1">
+      <c r="A98" s="32"/>
+      <c r="B98" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="C98" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="D98" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="E98" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="F98" s="33">
         <v>1.1</v>
       </c>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="G98" s="35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" ht="14.25" customHeight="1">
+      <c r="A99" s="32"/>
+      <c r="B99" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="C99" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="D99" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="E99" s="23"/>
+      <c r="F99" s="33">
+        <v>1.1</v>
+      </c>
+      <c r="G99" s="34" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25" customHeight="1">
+      <c r="A100" s="32"/>
+      <c r="B100" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C100" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G37" s="17"/>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="10">
-        <v>1.3</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="G40" s="7"/>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="10">
-        <v>1.3</v>
-      </c>
-      <c r="G42" s="7"/>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="10">
-        <v>1.4</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="10">
-        <v>1.4</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="10">
-        <v>1.4</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="7"/>
-      <c r="B51" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G54" s="7"/>
-    </row>
-    <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G55" s="7"/>
-    </row>
-    <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G56" s="7"/>
-    </row>
-    <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G57" s="7"/>
-    </row>
-    <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G58" s="7"/>
-    </row>
-    <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7" t="s">
+      <c r="D100" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="E100" s="32"/>
+      <c r="F100" s="33">
+        <v>1.1</v>
+      </c>
+      <c r="G100" s="35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25" customHeight="1">
+      <c r="A101" s="32"/>
+      <c r="B101" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G59" s="7"/>
-    </row>
-    <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="18">
-        <v>1.5</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="7"/>
-      <c r="B61" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="18">
-        <v>1.5</v>
-      </c>
-      <c r="G61" s="7"/>
-    </row>
-    <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="7"/>
-      <c r="B62" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25" customHeight="1">
-      <c r="B63" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="18">
-        <v>1.5</v>
-      </c>
-      <c r="G63" s="17"/>
-    </row>
-    <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="7"/>
-      <c r="B64" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" s="7"/>
-      <c r="B65" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="G66" s="17"/>
-    </row>
-    <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="G67" s="17"/>
-    </row>
-    <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="18">
-        <v>1.6</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="7"/>
-      <c r="B69" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="18">
-        <v>1.6</v>
-      </c>
-      <c r="G69" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" s="7"/>
-      <c r="B70" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="18">
-        <v>1.6</v>
-      </c>
-      <c r="G70" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" s="7"/>
-      <c r="B71" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="18">
-        <v>1.6</v>
-      </c>
-      <c r="G71" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="7"/>
-      <c r="B72" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="G72" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="73" ht="14.25" customHeight="1">
-      <c r="A73" s="7"/>
-      <c r="B73" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="G73" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" s="7"/>
-      <c r="B74" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="G75" s="17"/>
-    </row>
-    <row r="76" ht="14.25" customHeight="1">
-      <c r="A76" s="17"/>
-      <c r="B76" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="G76" s="16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="7"/>
-      <c r="B77" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="18">
-        <v>1.7</v>
-      </c>
-      <c r="G77" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" s="7"/>
-      <c r="B78" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="18">
-        <v>1.7</v>
-      </c>
-      <c r="G78" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="79" ht="14.25" customHeight="1">
-      <c r="A79" s="7"/>
-      <c r="B79" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="G79" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" s="7"/>
-      <c r="B80" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="18">
-        <v>1.7</v>
-      </c>
-      <c r="G80" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" s="7"/>
-      <c r="B81" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="G81" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="82" ht="14.25" customHeight="1">
-      <c r="A82" s="7"/>
-      <c r="B82" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="G82" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" s="7"/>
-      <c r="B83" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G83" s="20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="84" ht="14.25" customHeight="1">
-      <c r="A84" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G84" s="20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="85" ht="14.25" customHeight="1">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G85" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="86" ht="14.25" customHeight="1">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="10">
-        <v>1.8</v>
-      </c>
-      <c r="G86" s="13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="87" ht="14.25" customHeight="1">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="10">
-        <v>1.8</v>
-      </c>
-      <c r="G87" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="88" ht="14.25" customHeight="1">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G88" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="89" ht="14.25" customHeight="1">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="10">
-        <v>1.8</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="90" ht="14.25" customHeight="1">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G90" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="91" ht="14.25" customHeight="1">
-      <c r="A91" s="21"/>
-      <c r="B91" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C91" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D91" s="21"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="G91" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="92" ht="14.25" customHeight="1">
-      <c r="A92" s="21"/>
-      <c r="B92" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C92" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="G92" s="23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="93" ht="14.25" customHeight="1">
-      <c r="A93" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B93" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="C93" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="G93" s="23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="94" ht="14.25" customHeight="1">
-      <c r="A94" s="21"/>
-      <c r="B94" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C94" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="G94" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="95" ht="14.25" customHeight="1">
-      <c r="A95" s="21"/>
-      <c r="B95" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="C95" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D95" s="21"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="22">
+      <c r="C101" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D101" s="32"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="33">
         <v>1.9</v>
       </c>
-      <c r="G95" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="96" ht="14.25" customHeight="1">
-      <c r="A96" s="21"/>
-      <c r="B96" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C96" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D96" s="21"/>
-      <c r="E96" s="21"/>
-      <c r="F96" s="22">
-        <v>1.9</v>
-      </c>
-      <c r="G96" s="23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="97" ht="14.25" customHeight="1">
-      <c r="A97" s="21"/>
-      <c r="B97" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="C97" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D97" s="21"/>
-      <c r="E97" s="21"/>
-      <c r="F97" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="G97" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="98" ht="14.25" customHeight="1">
-      <c r="A98" s="21"/>
-      <c r="B98" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C98" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D98" s="21"/>
-      <c r="E98" s="21"/>
-      <c r="F98" s="22">
-        <v>1.1</v>
-      </c>
-      <c r="G98" s="24" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="99" ht="14.25" customHeight="1">
-      <c r="A99" s="21"/>
-      <c r="B99" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C99" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="D99" s="21"/>
-      <c r="E99" s="21"/>
-      <c r="F99" s="22">
-        <v>1.1</v>
-      </c>
-      <c r="G99" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="100" ht="14.25" customHeight="1">
-      <c r="A100" s="21"/>
-      <c r="B100" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C100" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D100" s="21"/>
-      <c r="E100" s="21"/>
-      <c r="F100" s="22">
-        <v>1.1</v>
-      </c>
-      <c r="G100" s="24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="101" ht="14.25" customHeight="1">
-      <c r="A101" s="21"/>
-      <c r="B101" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C101" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D101" s="21"/>
-      <c r="E101" s="21"/>
-      <c r="F101" s="22">
-        <v>1.9</v>
-      </c>
-      <c r="G101" s="21"/>
+      <c r="G101" s="35" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="102" ht="14.25" customHeight="1">
-      <c r="A102" s="21"/>
-      <c r="B102" s="21"/>
-      <c r="C102" s="21"/>
-      <c r="D102" s="21"/>
-      <c r="E102" s="21"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="21"/>
+      <c r="A102" s="32"/>
+      <c r="B102" s="32"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
     </row>
     <row r="103" ht="14.25" customHeight="1">
-      <c r="A103" s="21"/>
-      <c r="B103" s="21"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="21"/>
-      <c r="E103" s="21"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="21"/>
+      <c r="A103" s="32"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="32"/>
     </row>
     <row r="104" ht="14.25" customHeight="1">
-      <c r="A104" s="21"/>
-      <c r="B104" s="21"/>
-      <c r="C104" s="21"/>
-      <c r="D104" s="21"/>
-      <c r="E104" s="21"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="21"/>
+      <c r="A104" s="32"/>
+      <c r="B104" s="32"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
     </row>
     <row r="105" ht="14.25" customHeight="1">
-      <c r="A105" s="21"/>
-      <c r="B105" s="21"/>
-      <c r="C105" s="21"/>
-      <c r="D105" s="21"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="21"/>
+      <c r="A105" s="32"/>
+      <c r="B105" s="32"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="32"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="32"/>
     </row>
     <row r="106" ht="14.25" customHeight="1"/>
     <row r="107" ht="14.25" customHeight="1"/>
@@ -3603,86 +4154,104 @@
     <hyperlink r:id="rId3" ref="G4"/>
     <hyperlink r:id="rId4" location="gid=0" ref="G5"/>
     <hyperlink r:id="rId5" location="gid=1290689837" ref="G6"/>
-    <hyperlink r:id="rId6" ref="G8"/>
-    <hyperlink r:id="rId7" ref="G9"/>
-    <hyperlink r:id="rId8" ref="G10"/>
-    <hyperlink r:id="rId9" ref="G11"/>
-    <hyperlink r:id="rId10" location="gid=1290689837" ref="G13"/>
-    <hyperlink r:id="rId11" ref="G14"/>
-    <hyperlink r:id="rId12" ref="G16"/>
-    <hyperlink r:id="rId13" ref="G17"/>
-    <hyperlink r:id="rId14" ref="G18"/>
-    <hyperlink r:id="rId15" ref="G19"/>
-    <hyperlink r:id="rId16" ref="G20"/>
-    <hyperlink r:id="rId17" ref="G21"/>
-    <hyperlink r:id="rId18" location="heading=h.hpleuy4twxai" ref="G22"/>
-    <hyperlink r:id="rId19" location="heading=h.hpleuy4twxai" ref="G23"/>
-    <hyperlink r:id="rId20" location="heading=h.hpleuy4twxai" ref="G24"/>
-    <hyperlink r:id="rId21" ref="G25"/>
-    <hyperlink r:id="rId22" ref="G26"/>
-    <hyperlink r:id="rId23" ref="G27"/>
-    <hyperlink r:id="rId24" ref="G28"/>
-    <hyperlink r:id="rId25" ref="G29"/>
-    <hyperlink r:id="rId26" ref="G30"/>
-    <hyperlink r:id="rId27" ref="G31"/>
-    <hyperlink r:id="rId28" ref="G32"/>
-    <hyperlink r:id="rId29" ref="G33"/>
-    <hyperlink r:id="rId30" location="heading=h.8qnhu9772rdi" ref="G34"/>
-    <hyperlink r:id="rId31" location="heading=h.26i9zaua4334" ref="G35"/>
-    <hyperlink r:id="rId32" location="heading=h.gu8r0f4nas6k" ref="G36"/>
-    <hyperlink r:id="rId33" location="gid=420254295" ref="G39"/>
-    <hyperlink r:id="rId34" ref="G41"/>
-    <hyperlink r:id="rId35" ref="G43"/>
-    <hyperlink r:id="rId36" ref="G44"/>
-    <hyperlink r:id="rId37" ref="G45"/>
-    <hyperlink r:id="rId38" location="heading=h.k034iv6tw88a" ref="G46"/>
-    <hyperlink r:id="rId39" location="gid=1290689837" ref="G47"/>
-    <hyperlink r:id="rId40" location="gid=420254295" ref="G48"/>
-    <hyperlink r:id="rId41" ref="G49"/>
-    <hyperlink r:id="rId42" location="slide=id.p1" ref="G50"/>
-    <hyperlink r:id="rId43" ref="G51"/>
-    <hyperlink r:id="rId44" ref="G52"/>
-    <hyperlink r:id="rId45" ref="G53"/>
-    <hyperlink r:id="rId46" location="gid=1290689837" ref="G60"/>
-    <hyperlink r:id="rId47" ref="G62"/>
-    <hyperlink r:id="rId48" ref="G64"/>
-    <hyperlink r:id="rId49" ref="G65"/>
-    <hyperlink r:id="rId50" location="gid=420254295" ref="G68"/>
-    <hyperlink r:id="rId51" location="gid=483070094" ref="G69"/>
-    <hyperlink r:id="rId52" location="slide=id.p1" ref="G70"/>
-    <hyperlink r:id="rId53" ref="G71"/>
-    <hyperlink r:id="rId54" ref="G72"/>
-    <hyperlink r:id="rId55" ref="G73"/>
-    <hyperlink r:id="rId56" ref="G74"/>
-    <hyperlink r:id="rId57" ref="G76"/>
-    <hyperlink r:id="rId58" location="gid=1290689837" ref="G77"/>
-    <hyperlink r:id="rId59" location="gid=483070094" ref="G78"/>
-    <hyperlink r:id="rId60" ref="G79"/>
-    <hyperlink r:id="rId61" location="slide=id.p1" ref="G80"/>
-    <hyperlink r:id="rId62" ref="G81"/>
-    <hyperlink r:id="rId63" ref="G82"/>
-    <hyperlink r:id="rId64" ref="G83"/>
-    <hyperlink r:id="rId65" ref="G84"/>
-    <hyperlink r:id="rId66" location="slide=id.p1" ref="G85"/>
-    <hyperlink r:id="rId67" location="gid=1290689837" ref="G86"/>
-    <hyperlink r:id="rId68" location="gid=483070094" ref="G87"/>
-    <hyperlink r:id="rId69" ref="G88"/>
-    <hyperlink r:id="rId70" location="slide=id.p1" ref="G89"/>
-    <hyperlink r:id="rId71" ref="G90"/>
-    <hyperlink r:id="rId72" ref="G91"/>
-    <hyperlink r:id="rId73" ref="G92"/>
-    <hyperlink r:id="rId74" ref="G93"/>
-    <hyperlink r:id="rId75" ref="G94"/>
-    <hyperlink r:id="rId76" location="gid=483070094" ref="G95"/>
-    <hyperlink r:id="rId77" location="gid=1810293663" ref="G96"/>
-    <hyperlink r:id="rId78" location="slide=id.g39ca7f829a3_0_28" ref="G97"/>
-    <hyperlink r:id="rId79" ref="G98"/>
-    <hyperlink r:id="rId80" ref="G99"/>
-    <hyperlink r:id="rId81" ref="G100"/>
+    <hyperlink r:id="rId6" location="slide=id.p1" ref="G7"/>
+    <hyperlink r:id="rId7" ref="G8"/>
+    <hyperlink r:id="rId8" ref="G9"/>
+    <hyperlink r:id="rId9" ref="G10"/>
+    <hyperlink r:id="rId10" ref="G11"/>
+    <hyperlink r:id="rId11" location="gid=483070094" ref="G12"/>
+    <hyperlink r:id="rId12" location="gid=1290689837" ref="G13"/>
+    <hyperlink r:id="rId13" ref="G14"/>
+    <hyperlink r:id="rId14" location="slide=id.p1" ref="G15"/>
+    <hyperlink r:id="rId15" ref="G16"/>
+    <hyperlink r:id="rId16" ref="G17"/>
+    <hyperlink r:id="rId17" ref="G18"/>
+    <hyperlink r:id="rId18" ref="G19"/>
+    <hyperlink r:id="rId19" ref="G20"/>
+    <hyperlink r:id="rId20" ref="G21"/>
+    <hyperlink r:id="rId21" location="heading=h.hpleuy4twxai" ref="G22"/>
+    <hyperlink r:id="rId22" location="heading=h.hpleuy4twxai" ref="G23"/>
+    <hyperlink r:id="rId23" location="heading=h.hpleuy4twxai" ref="G24"/>
+    <hyperlink r:id="rId24" ref="G25"/>
+    <hyperlink r:id="rId25" ref="G26"/>
+    <hyperlink r:id="rId26" ref="G27"/>
+    <hyperlink r:id="rId27" ref="G28"/>
+    <hyperlink r:id="rId28" ref="G29"/>
+    <hyperlink r:id="rId29" ref="G30"/>
+    <hyperlink r:id="rId30" ref="G31"/>
+    <hyperlink r:id="rId31" ref="G32"/>
+    <hyperlink r:id="rId32" ref="G33"/>
+    <hyperlink r:id="rId33" location="heading=h.8qnhu9772rdi" ref="G34"/>
+    <hyperlink r:id="rId34" location="heading=h.26i9zaua4334" ref="G35"/>
+    <hyperlink r:id="rId35" location="heading=h.gu8r0f4nas6k" ref="G36"/>
+    <hyperlink r:id="rId36" ref="G37"/>
+    <hyperlink r:id="rId37" ref="G38"/>
+    <hyperlink r:id="rId38" location="gid=420254295" ref="G39"/>
+    <hyperlink r:id="rId39" location="gid=483070094" ref="G40"/>
+    <hyperlink r:id="rId40" ref="G41"/>
+    <hyperlink r:id="rId41" location="slide=id.p1" ref="G42"/>
+    <hyperlink r:id="rId42" ref="G43"/>
+    <hyperlink r:id="rId43" ref="G44"/>
+    <hyperlink r:id="rId44" ref="G45"/>
+    <hyperlink r:id="rId45" location="heading=h.k034iv6tw88a" ref="G46"/>
+    <hyperlink r:id="rId46" location="gid=1290689837" ref="G47"/>
+    <hyperlink r:id="rId47" location="gid=420254295" ref="G48"/>
+    <hyperlink r:id="rId48" ref="G49"/>
+    <hyperlink r:id="rId49" location="slide=id.p1" ref="G50"/>
+    <hyperlink r:id="rId50" ref="G51"/>
+    <hyperlink r:id="rId51" ref="G52"/>
+    <hyperlink r:id="rId52" ref="G53"/>
+    <hyperlink r:id="rId53" ref="G54"/>
+    <hyperlink r:id="rId54" ref="G55"/>
+    <hyperlink r:id="rId55" ref="G56"/>
+    <hyperlink r:id="rId56" ref="G57"/>
+    <hyperlink r:id="rId57" ref="G58"/>
+    <hyperlink r:id="rId58" location="gid=1290689837" ref="G60"/>
+    <hyperlink r:id="rId59" location="gid=483070094" ref="G61"/>
+    <hyperlink r:id="rId60" ref="G62"/>
+    <hyperlink r:id="rId61" location="slide=id.p1" ref="G63"/>
+    <hyperlink r:id="rId62" ref="G64"/>
+    <hyperlink r:id="rId63" ref="G65"/>
+    <hyperlink r:id="rId64" ref="G66"/>
+    <hyperlink r:id="rId65" location="gid=1400304802" ref="G67"/>
+    <hyperlink r:id="rId66" location="gid=420254295" ref="G68"/>
+    <hyperlink r:id="rId67" location="gid=483070094" ref="G69"/>
+    <hyperlink r:id="rId68" location="slide=id.p1" ref="G70"/>
+    <hyperlink r:id="rId69" ref="G71"/>
+    <hyperlink r:id="rId70" ref="G72"/>
+    <hyperlink r:id="rId71" ref="G73"/>
+    <hyperlink r:id="rId72" ref="G74"/>
+    <hyperlink r:id="rId73" ref="G75"/>
+    <hyperlink r:id="rId74" ref="G76"/>
+    <hyperlink r:id="rId75" location="gid=1290689837" ref="G77"/>
+    <hyperlink r:id="rId76" location="gid=483070094" ref="G78"/>
+    <hyperlink r:id="rId77" ref="G79"/>
+    <hyperlink r:id="rId78" location="slide=id.p1" ref="G80"/>
+    <hyperlink r:id="rId79" ref="G81"/>
+    <hyperlink r:id="rId80" ref="G82"/>
+    <hyperlink r:id="rId81" ref="G83"/>
+    <hyperlink r:id="rId82" ref="G84"/>
+    <hyperlink r:id="rId83" location="slide=id.p1" ref="G85"/>
+    <hyperlink r:id="rId84" location="gid=1290689837" ref="G86"/>
+    <hyperlink r:id="rId85" location="gid=483070094" ref="G87"/>
+    <hyperlink r:id="rId86" ref="G88"/>
+    <hyperlink r:id="rId87" location="slide=id.p1" ref="G89"/>
+    <hyperlink r:id="rId88" ref="G90"/>
+    <hyperlink r:id="rId89" ref="G91"/>
+    <hyperlink r:id="rId90" ref="G92"/>
+    <hyperlink r:id="rId91" ref="G93"/>
+    <hyperlink r:id="rId92" ref="G94"/>
+    <hyperlink r:id="rId93" location="gid=483070094" ref="G95"/>
+    <hyperlink r:id="rId94" location="gid=1810293663" ref="G96"/>
+    <hyperlink r:id="rId95" location="slide=id.g39ca7f829a3_0_28" ref="G97"/>
+    <hyperlink r:id="rId96" ref="G98"/>
+    <hyperlink r:id="rId97" ref="G99"/>
+    <hyperlink r:id="rId98" ref="G100"/>
+    <hyperlink r:id="rId99" ref="G101"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId82"/>
+  <drawing r:id="rId100"/>
 </worksheet>
 </file>
--- a/assets/docs/Maestro_de_Documento.xlsx
+++ b/assets/docs/Maestro_de_Documento.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="229">
   <si>
     <t>Fase</t>
   </si>
@@ -616,6 +616,93 @@
   </si>
   <si>
     <t>https://docs.google.com/document/d/15Usd7ExB9vO74yO7PUUnzwDjQJsxbXSx/edit</t>
+  </si>
+  <si>
+    <t>Requerimiento/Planeacion</t>
+  </si>
+  <si>
+    <t>Plantilla detalle caso de uso 1</t>
+  </si>
+  <si>
+    <t>Plantilla uso de caso</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1y0ZcJRrrZMb0n869-7ZdE0bnGACbS2qu/edit#heading=h.xdm536ja4fkn</t>
+  </si>
+  <si>
+    <t>Plantilla detalle caso de uso 2</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/11GK3gK8kNqxUp0HJ8C38IraN0xWPui9s/edit#heading=h.xdm536ja4fkn</t>
+  </si>
+  <si>
+    <t>Plantilla detalle caso de uso 3</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1lRJSpANm7CN-aSyI32FKOL4joSA442vP/edit#heading=h.xdm536ja4fkn</t>
+  </si>
+  <si>
+    <t>Requerimientos de atributo de calidad 1</t>
+  </si>
+  <si>
+    <t>requirimientos atributos de calidad</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1-ypJkvWXjX0aAQOc7Gdd9r8CNDgvCzLJ/edit</t>
+  </si>
+  <si>
+    <t>Requerimientos de atributo de calidad 2</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/11EeW1WRxZt0ilhLd55DI56X_mb_J8uLs/edit</t>
+  </si>
+  <si>
+    <t>Requerimientos de atributo de calidad 3</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/126fyYpm45FJvX2W6IjKV5dWZDjN3OWji/edit</t>
+  </si>
+  <si>
+    <t>Escenario de calidad 1</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1TCTgU-qkkZycXc_QAHMfy6RWhrJno2KS/edit</t>
+  </si>
+  <si>
+    <t>Escenario de calidad 2</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1YUlLA3u48triJrqTr8E8-4vHr1KRnNze/edit</t>
+  </si>
+  <si>
+    <t>Escenario de calidad 3</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1zs5M80g0rzlC8vH8rVBok5U27F6FcZ4s/edit</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1FWtU9hSLxstk-De1OQQQcv1uZ_Cow20m/edit?gid=1937534691#gid=1937534691</t>
+  </si>
+  <si>
+    <t>Script Requirimiento/Planeacion</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1DSamu76wtrRKDU70jOWe6QXfxaN65y9x/edit</t>
+  </si>
+  <si>
+    <t>Documento Final Requirimiento/Planeacion</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1qwWFhPNtPeok-yNsY13_9tfqidrwVdOs/edit?slide=id.p1#slide=id.p1</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1B1kja9CET0QBPi4YOh1SSwwJuDEqjriu/edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plantilla plan de calidad </t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1SrCUrdS-lHViT7O8q8-mx-sNzTkuChIS/edit</t>
   </si>
 </sst>
 </file>
@@ -768,7 +855,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -865,6 +952,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="15" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1089,7 +1179,7 @@
     <col customWidth="1" min="4" max="4" width="16.43"/>
     <col customWidth="1" min="5" max="5" width="20.14"/>
     <col customWidth="1" min="6" max="6" width="7.43"/>
-    <col customWidth="1" min="7" max="7" width="110.43"/>
+    <col customWidth="1" min="7" max="7" width="125.71"/>
     <col customWidth="1" min="8" max="26" width="10.71"/>
   </cols>
   <sheetData>
@@ -3175,7 +3265,9 @@
       <c r="D99" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="E99" s="23"/>
+      <c r="E99" s="23" t="s">
+        <v>186</v>
+      </c>
       <c r="F99" s="33">
         <v>1.1</v>
       </c>
@@ -3194,7 +3286,9 @@
       <c r="D100" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="E100" s="32"/>
+      <c r="E100" s="23" t="s">
+        <v>197</v>
+      </c>
       <c r="F100" s="33">
         <v>1.1</v>
       </c>
@@ -3210,8 +3304,12 @@
       <c r="C101" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D101" s="32"/>
-      <c r="E101" s="32"/>
+      <c r="D101" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="E101" s="23" t="s">
+        <v>197</v>
+      </c>
       <c r="F101" s="33">
         <v>1.9</v>
       </c>
@@ -3220,54 +3318,362 @@
       </c>
     </row>
     <row r="102" ht="14.25" customHeight="1">
-      <c r="A102" s="32"/>
-      <c r="B102" s="32"/>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="32"/>
-      <c r="F102" s="32"/>
-      <c r="G102" s="32"/>
+      <c r="A102" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="C102" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="D102" s="36">
+        <v>45967.0</v>
+      </c>
+      <c r="E102" s="36">
+        <v>45967.0</v>
+      </c>
+      <c r="F102" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="G102" s="34" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="103" ht="14.25" customHeight="1">
       <c r="A103" s="32"/>
-      <c r="B103" s="32"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="32"/>
-      <c r="F103" s="32"/>
-      <c r="G103" s="32"/>
+      <c r="B103" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C103" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="D103" s="36">
+        <v>45967.0</v>
+      </c>
+      <c r="E103" s="36">
+        <v>45967.0</v>
+      </c>
+      <c r="F103" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="G103" s="34" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="104" ht="14.25" customHeight="1">
       <c r="A104" s="32"/>
-      <c r="B104" s="32"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="32"/>
-      <c r="G104" s="32"/>
+      <c r="B104" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="C104" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="D104" s="36">
+        <v>45967.0</v>
+      </c>
+      <c r="E104" s="36">
+        <v>45967.0</v>
+      </c>
+      <c r="F104" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="G104" s="34" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="105" ht="14.25" customHeight="1">
       <c r="A105" s="32"/>
-      <c r="B105" s="32"/>
-      <c r="C105" s="32"/>
-      <c r="D105" s="32"/>
-      <c r="E105" s="32"/>
-      <c r="F105" s="32"/>
-      <c r="G105" s="32"/>
-    </row>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
+      <c r="B105" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="C105" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="D105" s="36">
+        <v>45967.0</v>
+      </c>
+      <c r="E105" s="36">
+        <v>45967.0</v>
+      </c>
+      <c r="F105" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="G105" s="34" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" ht="14.25" customHeight="1">
+      <c r="A106" s="32"/>
+      <c r="B106" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="C106" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="D106" s="36">
+        <v>45967.0</v>
+      </c>
+      <c r="E106" s="36">
+        <v>45967.0</v>
+      </c>
+      <c r="F106" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="G106" s="34" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="107" ht="14.25" customHeight="1">
+      <c r="A107" s="32"/>
+      <c r="B107" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="C107" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="D107" s="36">
+        <v>45967.0</v>
+      </c>
+      <c r="E107" s="36">
+        <v>45967.0</v>
+      </c>
+      <c r="F107" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="G107" s="34" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="108" ht="14.25" customHeight="1">
+      <c r="A108" s="32"/>
+      <c r="B108" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="C108" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D108" s="36">
+        <v>45967.0</v>
+      </c>
+      <c r="E108" s="36">
+        <v>45967.0</v>
+      </c>
+      <c r="F108" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="G108" s="34" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="109" ht="14.25" customHeight="1">
+      <c r="A109" s="32"/>
+      <c r="B109" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="C109" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D109" s="36">
+        <v>45967.0</v>
+      </c>
+      <c r="E109" s="36">
+        <v>45967.0</v>
+      </c>
+      <c r="F109" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="G109" s="34" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="110" ht="14.25" customHeight="1">
+      <c r="A110" s="32"/>
+      <c r="B110" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="C110" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D110" s="36">
+        <v>45967.0</v>
+      </c>
+      <c r="E110" s="36">
+        <v>45967.0</v>
+      </c>
+      <c r="F110" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="G110" s="34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="111" ht="14.25" customHeight="1">
+      <c r="A111" s="32"/>
+      <c r="B111" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D111" s="36">
+        <v>45967.0</v>
+      </c>
+      <c r="E111" s="36">
+        <v>45968.0</v>
+      </c>
+      <c r="F111" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="G111" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25" customHeight="1">
+      <c r="A112" s="32"/>
+      <c r="B112" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C112" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112" s="36">
+        <v>45967.0</v>
+      </c>
+      <c r="E112" s="36">
+        <v>45968.0</v>
+      </c>
+      <c r="F112" s="33">
+        <v>1.1</v>
+      </c>
+      <c r="G112" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" ht="14.25" customHeight="1">
+      <c r="A113" s="32"/>
+      <c r="B113" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D113" s="36">
+        <v>45967.0</v>
+      </c>
+      <c r="E113" s="36">
+        <v>45967.0</v>
+      </c>
+      <c r="F113" s="33">
+        <v>1.1</v>
+      </c>
+      <c r="G113" s="34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="114" ht="14.25" customHeight="1">
+      <c r="A114" s="32"/>
+      <c r="B114" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="C114" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D114" s="36">
+        <v>45967.0</v>
+      </c>
+      <c r="E114" s="36">
+        <v>45967.0</v>
+      </c>
+      <c r="F114" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="G114" s="34" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="115" ht="14.25" customHeight="1">
+      <c r="A115" s="32"/>
+      <c r="B115" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C115" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D115" s="36">
+        <v>45967.0</v>
+      </c>
+      <c r="E115" s="36">
+        <v>45967.0</v>
+      </c>
+      <c r="F115" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="G115" s="34" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="116" ht="14.25" customHeight="1">
+      <c r="A116" s="32"/>
+      <c r="B116" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C116" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D116" s="36">
+        <v>45967.0</v>
+      </c>
+      <c r="E116" s="36">
+        <v>45967.0</v>
+      </c>
+      <c r="F116" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="G116" s="34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="117" ht="14.25" customHeight="1">
+      <c r="A117" s="32"/>
+      <c r="B117" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C117" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="D117" s="36">
+        <v>45967.0</v>
+      </c>
+      <c r="E117" s="36">
+        <v>45968.0</v>
+      </c>
+      <c r="F117" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="G117" s="34" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="118" ht="14.25" customHeight="1">
+      <c r="A118" s="32"/>
+      <c r="B118" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C118" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D118" s="36">
+        <v>45967.0</v>
+      </c>
+      <c r="E118" s="36">
+        <v>45968.0</v>
+      </c>
+      <c r="F118" s="33">
+        <v>1.1</v>
+      </c>
+      <c r="G118" s="32"/>
+    </row>
     <row r="119" ht="14.25" customHeight="1"/>
     <row r="120" ht="14.25" customHeight="1"/>
     <row r="121" ht="14.25" customHeight="1"/>
@@ -4248,10 +4654,26 @@
     <hyperlink r:id="rId97" ref="G99"/>
     <hyperlink r:id="rId98" ref="G100"/>
     <hyperlink r:id="rId99" ref="G101"/>
+    <hyperlink r:id="rId100" location="heading=h.xdm536ja4fkn" ref="G102"/>
+    <hyperlink r:id="rId101" location="heading=h.xdm536ja4fkn" ref="G103"/>
+    <hyperlink r:id="rId102" location="heading=h.xdm536ja4fkn" ref="G104"/>
+    <hyperlink r:id="rId103" ref="G105"/>
+    <hyperlink r:id="rId104" ref="G106"/>
+    <hyperlink r:id="rId105" ref="G107"/>
+    <hyperlink r:id="rId106" ref="G108"/>
+    <hyperlink r:id="rId107" ref="G109"/>
+    <hyperlink r:id="rId108" ref="G110"/>
+    <hyperlink r:id="rId109" ref="G111"/>
+    <hyperlink r:id="rId110" location="gid=483070094" ref="G112"/>
+    <hyperlink r:id="rId111" location="gid=1937534691" ref="G113"/>
+    <hyperlink r:id="rId112" ref="G114"/>
+    <hyperlink r:id="rId113" location="slide=id.p1" ref="G115"/>
+    <hyperlink r:id="rId114" ref="G116"/>
+    <hyperlink r:id="rId115" ref="G117"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId100"/>
+  <drawing r:id="rId116"/>
 </worksheet>
 </file>
--- a/assets/docs/Maestro_de_Documento.xlsx
+++ b/assets/docs/Maestro_de_Documento.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="268">
   <si>
     <t>Fase</t>
   </si>
@@ -703,6 +703,123 @@
   </si>
   <si>
     <t>https://docs.google.com/document/d/1SrCUrdS-lHViT7O8q8-mx-sNzTkuChIS/edit</t>
+  </si>
+  <si>
+    <t>Plantilla SDS fase 2</t>
+  </si>
+  <si>
+    <t>Diagrama de concurrencia</t>
+  </si>
+  <si>
+    <t>Diagrama de despliegue y desarrollo</t>
+  </si>
+  <si>
+    <t>Diagrama Funcional</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1FWtU9hSLxstk-De1OQQQcv1uZ_Cow20m/edit?gid=1144494217#gid=1144494217</t>
+  </si>
+  <si>
+    <t>log defectos</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1IbARxuTeOY2qWEzCasl3rCnB_irvc6KH/edit?gid=79874470#gid=79874470</t>
+  </si>
+  <si>
+    <t>Script_Diseño_Fase2</t>
+  </si>
+  <si>
+    <t>Script Diseño Fase 2</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1Xf8pnN25dphsPbfcqetZIl3B_0n3hMVX/edit</t>
+  </si>
+  <si>
+    <t>Documento final Diseño fase 2</t>
+  </si>
+  <si>
+    <t>Documento Final</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1JhHe0xxX1FGn0ZpnoEbbQqMEA-XR7utf/edit?slide=id.p1#slide=id.p1</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1g62SgckS0e-_L_U-p7BJoUvQQO2stiSf/edit</t>
+  </si>
+  <si>
+    <t>Implementacion/Pruebas</t>
+  </si>
+  <si>
+    <t>ControlAsignaciones*</t>
+  </si>
+  <si>
+    <t>11/16/2025</t>
+  </si>
+  <si>
+    <t>Log Defectos</t>
+  </si>
+  <si>
+    <t>Bitacora(Individual)*</t>
+  </si>
+  <si>
+    <t>Plantilla Plan de Implementacion*</t>
+  </si>
+  <si>
+    <t>Plan de Implementacion Fase 2</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1hZ4VwZHSQLBuYS6UXZVADpCa0ci9EpUY/edit</t>
+  </si>
+  <si>
+    <t>Plantilla de casos de Prueba*</t>
+  </si>
+  <si>
+    <t>Casos de Prueba Fase 2</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1mBxDFRe4hsR991xumfNI11K23JHzNpSw/edit</t>
+  </si>
+  <si>
+    <t>Plantilla plan de pruebas*</t>
+  </si>
+  <si>
+    <t>Plan de Pruebas Fase 2</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1U4dkAp9hZBim9RKJSn_XKx3weqZWQHkx/edit</t>
+  </si>
+  <si>
+    <t>Script implementacion/Pruebas*</t>
+  </si>
+  <si>
+    <t>Script Implementacion/Fase2</t>
+  </si>
+  <si>
+    <t>11/17/2025</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1V4h-hSkVXvuk42Qm_uz0nVEhrNbE0OFd/edit</t>
+  </si>
+  <si>
+    <t>Documento Final Implementacion/Pruebas*</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1bgHTwr7UsWROLPNzEflCF_b3AlPhSsdH/edit?slide=id.p1#slide=id.p1</t>
+  </si>
+  <si>
+    <t>PostmortemF2</t>
+  </si>
+  <si>
+    <t>Documento Informe de Postmortem fase 2</t>
+  </si>
+  <si>
+    <t>Presentacion de Postmortem fase 2</t>
+  </si>
+  <si>
+    <t>Documento Final PostmortemF2</t>
+  </si>
+  <si>
+    <t>Script PostMortem Fase 2</t>
   </si>
 </sst>
 </file>
@@ -713,7 +830,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -815,6 +932,22 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -855,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -955,6 +1088,18 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="15" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="11" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -3656,57 +3801,611 @@
       </c>
     </row>
     <row r="118" ht="14.25" customHeight="1">
-      <c r="A118" s="32"/>
-      <c r="B118" s="33" t="s">
+      <c r="A118" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C118" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="D118" s="37">
+        <v>45971.0</v>
+      </c>
+      <c r="E118" s="37">
+        <v>45971.0</v>
+      </c>
+      <c r="F118" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="G118" s="32"/>
+    </row>
+    <row r="119" ht="14.25" customHeight="1">
+      <c r="A119" s="32"/>
+      <c r="B119" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C119" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="D119" s="37">
+        <v>45971.0</v>
+      </c>
+      <c r="E119" s="37">
+        <v>45971.0</v>
+      </c>
+      <c r="F119" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="120" ht="14.25" customHeight="1">
+      <c r="A120" s="32"/>
+      <c r="B120" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C120" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="D120" s="37">
+        <v>45971.0</v>
+      </c>
+      <c r="E120" s="37">
+        <v>45971.0</v>
+      </c>
+      <c r="F120" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="121" ht="14.25" customHeight="1">
+      <c r="A121" s="32"/>
+      <c r="B121" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C121" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D121" s="37">
+        <v>45971.0</v>
+      </c>
+      <c r="E121" s="37">
+        <v>45971.0</v>
+      </c>
+      <c r="F121" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="G121" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="122" ht="14.25" customHeight="1">
+      <c r="A122" s="32"/>
+      <c r="B122" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C122" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="D122" s="37">
+        <v>45971.0</v>
+      </c>
+      <c r="E122" s="37">
+        <v>45971.0</v>
+      </c>
+      <c r="F122" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="123" ht="14.25" customHeight="1">
+      <c r="A123" s="32"/>
+      <c r="B123" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C123" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D123" s="37">
+        <v>45971.0</v>
+      </c>
+      <c r="E123" s="37">
+        <v>45971.0</v>
+      </c>
+      <c r="F123" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="124" ht="14.25" customHeight="1">
+      <c r="A124" s="32"/>
+      <c r="B124" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C124" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D124" s="37">
+        <v>45971.0</v>
+      </c>
+      <c r="E124" s="37">
+        <v>45971.0</v>
+      </c>
+      <c r="F124" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="G124" s="32"/>
+    </row>
+    <row r="125" ht="14.25" customHeight="1">
+      <c r="A125" s="32"/>
+      <c r="B125" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" s="37">
+        <v>45971.0</v>
+      </c>
+      <c r="E125" s="37">
+        <v>45971.0</v>
+      </c>
+      <c r="F125" s="33">
+        <v>1.12</v>
+      </c>
+      <c r="G125" s="34" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="126" ht="14.25" customHeight="1">
+      <c r="A126" s="32"/>
+      <c r="B126" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D126" s="37">
+        <v>45972.0</v>
+      </c>
+      <c r="E126" s="37">
+        <v>45972.0</v>
+      </c>
+      <c r="F126" s="33">
+        <v>1.12</v>
+      </c>
+      <c r="G126" s="34" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="127" ht="14.25" customHeight="1">
+      <c r="A127" s="32"/>
+      <c r="B127" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C127" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="D127" s="37">
+        <v>45972.0</v>
+      </c>
+      <c r="E127" s="37">
+        <v>45972.0</v>
+      </c>
+      <c r="F127" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="G127" s="34" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="128" ht="14.25" customHeight="1">
+      <c r="A128" s="32"/>
+      <c r="B128" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C128" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="D128" s="37">
+        <v>45972.0</v>
+      </c>
+      <c r="E128" s="37">
+        <v>45972.0</v>
+      </c>
+      <c r="F128" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="G128" s="34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="129" ht="14.25" customHeight="1">
+      <c r="A129" s="32"/>
+      <c r="B129" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C129" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D129" s="37">
+        <v>45971.0</v>
+      </c>
+      <c r="E129" s="37">
+        <v>45971.0</v>
+      </c>
+      <c r="F129" s="33">
+        <v>1.12</v>
+      </c>
+      <c r="G129" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" ht="14.25" customHeight="1">
+      <c r="A130" s="32"/>
+      <c r="B130" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C118" s="33" t="s">
+      <c r="C130" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D118" s="36">
-        <v>45967.0</v>
-      </c>
-      <c r="E118" s="36">
-        <v>45968.0</v>
-      </c>
-      <c r="F118" s="33">
+      <c r="D130" s="37">
+        <v>45972.0</v>
+      </c>
+      <c r="E130" s="37">
+        <v>45973.0</v>
+      </c>
+      <c r="F130" s="33">
         <v>1.1</v>
       </c>
-      <c r="G118" s="32"/>
-    </row>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
+      <c r="G130" s="40" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="131" ht="14.25" customHeight="1">
+      <c r="A131" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="B131" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C131" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D131" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F131" s="33">
+        <v>1.13</v>
+      </c>
+      <c r="G131" s="34" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="132" ht="14.25" customHeight="1">
+      <c r="A132" s="32"/>
+      <c r="B132" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C132" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D132" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F132" s="33">
+        <v>1.13</v>
+      </c>
+      <c r="G132" s="34" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="133" ht="14.25" customHeight="1">
+      <c r="A133" s="32"/>
+      <c r="B133" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="C133" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D133" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F133" s="33">
+        <v>1.13</v>
+      </c>
+      <c r="G133" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134" ht="14.25" customHeight="1">
+      <c r="A134" s="32"/>
+      <c r="B134" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="C134" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F134" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="G134" s="34" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="135" ht="14.25" customHeight="1">
+      <c r="A135" s="32"/>
+      <c r="B135" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C135" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F135" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="G135" s="34" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="136" ht="14.25" customHeight="1">
+      <c r="A136" s="32"/>
+      <c r="B136" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="C136" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F136" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="G136" s="34" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="137" ht="14.25" customHeight="1">
+      <c r="A137" s="32"/>
+      <c r="B137" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="C137" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E137" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="F137" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="G137" s="34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="138" ht="14.25" customHeight="1">
+      <c r="A138" s="32"/>
+      <c r="B138" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="C138" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E138" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="F138" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="G138" s="34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="139" ht="14.25" customHeight="1">
+      <c r="A139" s="32"/>
+      <c r="B139" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C139" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E139" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="F139" s="33">
+        <v>1.13</v>
+      </c>
+      <c r="G139" s="32"/>
+    </row>
+    <row r="140" ht="14.25" customHeight="1">
+      <c r="A140" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D140" s="32"/>
+      <c r="E140" s="32"/>
+      <c r="F140" s="32"/>
+      <c r="G140" s="32"/>
+    </row>
+    <row r="141" ht="14.25" customHeight="1">
+      <c r="A141" s="32"/>
+      <c r="B141" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D141" s="32"/>
+      <c r="E141" s="32"/>
+      <c r="F141" s="32"/>
+      <c r="G141" s="32"/>
+    </row>
+    <row r="142" ht="14.25" customHeight="1">
+      <c r="A142" s="32"/>
+      <c r="B142" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D142" s="32"/>
+      <c r="E142" s="32"/>
+      <c r="F142" s="32"/>
+      <c r="G142" s="32"/>
+    </row>
+    <row r="143" ht="14.25" customHeight="1">
+      <c r="A143" s="32"/>
+      <c r="B143" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143" s="32"/>
+      <c r="E143" s="32"/>
+      <c r="F143" s="32"/>
+      <c r="G143" s="32"/>
+    </row>
+    <row r="144" ht="14.25" customHeight="1">
+      <c r="A144" s="32"/>
+      <c r="B144" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D144" s="32"/>
+      <c r="E144" s="32"/>
+      <c r="F144" s="32"/>
+      <c r="G144" s="32"/>
+    </row>
+    <row r="145" ht="14.25" customHeight="1">
+      <c r="A145" s="32"/>
+      <c r="B145" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D145" s="32"/>
+      <c r="E145" s="32"/>
+      <c r="F145" s="32"/>
+      <c r="G145" s="32"/>
+    </row>
+    <row r="146" ht="14.25" customHeight="1">
+      <c r="A146" s="32"/>
+      <c r="B146" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D146" s="32"/>
+      <c r="E146" s="32"/>
+      <c r="F146" s="32"/>
+      <c r="G146" s="32"/>
+    </row>
+    <row r="147" ht="14.25" customHeight="1">
+      <c r="A147" s="32"/>
+      <c r="B147" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C147" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D147" s="32"/>
+      <c r="E147" s="32"/>
+      <c r="F147" s="32"/>
+      <c r="G147" s="32"/>
+    </row>
+    <row r="148" ht="14.25" customHeight="1">
+      <c r="A148" s="32"/>
+      <c r="B148" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C148" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D148" s="32"/>
+      <c r="E148" s="32"/>
+      <c r="F148" s="32"/>
+      <c r="G148" s="32"/>
+    </row>
+    <row r="149" ht="14.25" customHeight="1">
+      <c r="A149" s="32"/>
+      <c r="B149" s="32"/>
+      <c r="C149" s="32"/>
+      <c r="D149" s="32"/>
+      <c r="E149" s="32"/>
+      <c r="F149" s="32"/>
+      <c r="G149" s="32"/>
+    </row>
+    <row r="150" ht="14.25" customHeight="1">
+      <c r="A150" s="32"/>
+      <c r="B150" s="32"/>
+      <c r="C150" s="32"/>
+      <c r="D150" s="32"/>
+      <c r="E150" s="32"/>
+      <c r="F150" s="32"/>
+      <c r="G150" s="32"/>
+    </row>
+    <row r="151" ht="14.25" customHeight="1">
+      <c r="A151" s="32"/>
+      <c r="B151" s="32"/>
+      <c r="C151" s="32"/>
+      <c r="D151" s="32"/>
+      <c r="E151" s="32"/>
+      <c r="F151" s="32"/>
+      <c r="G151" s="32"/>
+    </row>
     <row r="152" ht="14.25" customHeight="1"/>
     <row r="153" ht="14.25" customHeight="1"/>
     <row r="154" ht="14.25" customHeight="1"/>
@@ -4670,10 +5369,29 @@
     <hyperlink r:id="rId113" location="slide=id.p1" ref="G115"/>
     <hyperlink r:id="rId114" ref="G116"/>
     <hyperlink r:id="rId115" ref="G117"/>
+    <hyperlink r:id="rId116" ref="G119"/>
+    <hyperlink r:id="rId117" ref="G120"/>
+    <hyperlink r:id="rId118" ref="G121"/>
+    <hyperlink r:id="rId119" ref="G122"/>
+    <hyperlink r:id="rId120" ref="G123"/>
+    <hyperlink r:id="rId121" location="gid=1144494217" ref="G125"/>
+    <hyperlink r:id="rId122" location="gid=79874470" ref="G126"/>
+    <hyperlink r:id="rId123" ref="G127"/>
+    <hyperlink r:id="rId124" location="slide=id.p1" ref="G128"/>
+    <hyperlink r:id="rId125" ref="G129"/>
+    <hyperlink r:id="rId126" ref="G130"/>
+    <hyperlink r:id="rId127" location="gid=1144494217" ref="G131"/>
+    <hyperlink r:id="rId128" location="gid=79874470" ref="G132"/>
+    <hyperlink r:id="rId129" ref="G133"/>
+    <hyperlink r:id="rId130" ref="G134"/>
+    <hyperlink r:id="rId131" ref="G135"/>
+    <hyperlink r:id="rId132" ref="G136"/>
+    <hyperlink r:id="rId133" ref="G137"/>
+    <hyperlink r:id="rId134" location="slide=id.p1" ref="G138"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId116"/>
+  <drawing r:id="rId135"/>
 </worksheet>
 </file>
--- a/assets/docs/Maestro_de_Documento.xlsx
+++ b/assets/docs/Maestro_de_Documento.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="275">
   <si>
     <t>Fase</t>
   </si>
@@ -807,19 +807,40 @@
     <t>https://docs.google.com/presentation/d/1bgHTwr7UsWROLPNzEflCF_b3AlPhSsdH/edit?slide=id.p1#slide=id.p1</t>
   </si>
   <si>
+    <t>https://docs.google.com/document/d/1_QLTlQ-J9CPzr2W34uvZ2DyxgYpu6whF/edit</t>
+  </si>
+  <si>
     <t>PostmortemF2</t>
   </si>
   <si>
     <t>Documento Informe de Postmortem fase 2</t>
   </si>
   <si>
+    <t>11/20/2025</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1onwKwWj1kalwRdaAqjXtKe61WWQ4zyj7/edit</t>
+  </si>
+  <si>
     <t>Presentacion de Postmortem fase 2</t>
   </si>
   <si>
+    <t>https://docs.google.com/presentation/d/1TgvHgzRAdd5JJQplZJF0Jo4RnmnaCA0t/edit?slide=id.p1#slide=id.p1</t>
+  </si>
+  <si>
     <t>Documento Final PostmortemF2</t>
   </si>
   <si>
+    <t>https://docs.google.com/presentation/d/1fGyYBZ66plcXOYkAUt2RhwI5WlN8G0tm/edit?slide=id.p1#slide=id.p1</t>
+  </si>
+  <si>
     <t>Script PostMortem Fase 2</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1TqFCWS9xfvRacw6XqnrOZtoiC3WX8e2A/edit</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/14O7je7IuUujxgi5WSxECpDXVutbzTi5J/edit</t>
   </si>
 </sst>
 </file>
@@ -4258,35 +4279,53 @@
       <c r="F139" s="33">
         <v>1.13</v>
       </c>
-      <c r="G139" s="32"/>
+      <c r="G139" s="34" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="140" ht="14.25" customHeight="1">
       <c r="A140" s="33" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C140" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D140" s="32"/>
-      <c r="E140" s="32"/>
-      <c r="F140" s="32"/>
-      <c r="G140" s="32"/>
+      <c r="D140" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="E140" s="27">
+        <v>45983.0</v>
+      </c>
+      <c r="F140" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="G140" s="34" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="141" ht="14.25" customHeight="1">
       <c r="A141" s="32"/>
       <c r="B141" s="9" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C141" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="D141" s="32"/>
-      <c r="E141" s="32"/>
-      <c r="F141" s="32"/>
-      <c r="G141" s="32"/>
+      <c r="D141" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="E141" s="27">
+        <v>45984.0</v>
+      </c>
+      <c r="F141" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="G141" s="34" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="142" ht="14.25" customHeight="1">
       <c r="A142" s="32"/>
@@ -4296,10 +4335,18 @@
       <c r="C142" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D142" s="32"/>
-      <c r="E142" s="32"/>
-      <c r="F142" s="32"/>
-      <c r="G142" s="32"/>
+      <c r="D142" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="E142" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="F142" s="33">
+        <v>1.14</v>
+      </c>
+      <c r="G142" s="34" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="143" ht="14.25" customHeight="1">
       <c r="A143" s="32"/>
@@ -4309,10 +4356,18 @@
       <c r="C143" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D143" s="32"/>
-      <c r="E143" s="32"/>
-      <c r="F143" s="32"/>
-      <c r="G143" s="32"/>
+      <c r="D143" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="E143" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="F143" s="33">
+        <v>1.14</v>
+      </c>
+      <c r="G143" s="34" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="144" ht="14.25" customHeight="1">
       <c r="A144" s="32"/>
@@ -4322,58 +4377,86 @@
       <c r="C144" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D144" s="32"/>
-      <c r="E144" s="32"/>
-      <c r="F144" s="32"/>
-      <c r="G144" s="32"/>
+      <c r="D144" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="E144" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="F144" s="33">
+        <v>1.14</v>
+      </c>
+      <c r="G144" s="34" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="145" ht="14.25" customHeight="1">
       <c r="A145" s="32"/>
       <c r="B145" s="9" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D145" s="32"/>
-      <c r="E145" s="32"/>
-      <c r="F145" s="32"/>
-      <c r="G145" s="32"/>
+      <c r="D145" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="E145" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="F145" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="G145" s="34" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="146" ht="14.25" customHeight="1">
       <c r="A146" s="32"/>
       <c r="B146" s="9" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D146" s="32"/>
-      <c r="E146" s="32"/>
-      <c r="F146" s="32"/>
-      <c r="G146" s="32"/>
+      <c r="D146" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="E146" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="F146" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="G146" s="34" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="147" ht="14.25" customHeight="1">
       <c r="A147" s="32"/>
       <c r="B147" s="33" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="C147" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D147" s="32"/>
-      <c r="E147" s="32"/>
-      <c r="F147" s="32"/>
-      <c r="G147" s="32"/>
+        <v>30</v>
+      </c>
+      <c r="D147" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="E147" s="27">
+        <v>45984.0</v>
+      </c>
+      <c r="F147" s="33">
+        <v>1.14</v>
+      </c>
+      <c r="G147" s="34" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="148" ht="14.25" customHeight="1">
       <c r="A148" s="32"/>
-      <c r="B148" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="C148" s="33" t="s">
-        <v>30</v>
-      </c>
+      <c r="B148" s="33"/>
+      <c r="C148" s="33"/>
       <c r="D148" s="32"/>
       <c r="E148" s="32"/>
       <c r="F148" s="32"/>
@@ -5388,10 +5471,19 @@
     <hyperlink r:id="rId132" ref="G136"/>
     <hyperlink r:id="rId133" ref="G137"/>
     <hyperlink r:id="rId134" location="slide=id.p1" ref="G138"/>
+    <hyperlink r:id="rId135" ref="G139"/>
+    <hyperlink r:id="rId136" ref="G140"/>
+    <hyperlink r:id="rId137" location="slide=id.p1" ref="G141"/>
+    <hyperlink r:id="rId138" location="gid=1144494217" ref="G142"/>
+    <hyperlink r:id="rId139" location="gid=79874470" ref="G143"/>
+    <hyperlink r:id="rId140" ref="G144"/>
+    <hyperlink r:id="rId141" location="slide=id.p1" ref="G145"/>
+    <hyperlink r:id="rId142" ref="G146"/>
+    <hyperlink r:id="rId143" ref="G147"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId135"/>
+  <drawing r:id="rId144"/>
 </worksheet>
 </file>
--- a/assets/docs/Maestro_de_Documento.xlsx
+++ b/assets/docs/Maestro_de_Documento.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="276">
   <si>
     <t>Fase</t>
   </si>
@@ -706,6 +706,9 @@
   </si>
   <si>
     <t>Plantilla SDS fase 2</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1PiC1iUPGQ0YBW3PMvT2RtxkmqoeX5KSG/edit</t>
   </si>
   <si>
     <t>Diagrama de concurrencia</t>
@@ -3840,7 +3843,9 @@
       <c r="F118" s="33">
         <v>1.2</v>
       </c>
-      <c r="G118" s="32"/>
+      <c r="G118" s="34" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="119" ht="14.25" customHeight="1">
       <c r="A119" s="32"/>
@@ -3848,7 +3853,7 @@
         <v>122</v>
       </c>
       <c r="C119" s="33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D119" s="37">
         <v>45971.0</v>
@@ -3869,7 +3874,7 @@
         <v>125</v>
       </c>
       <c r="C120" s="38" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D120" s="37">
         <v>45971.0</v>
@@ -3911,7 +3916,7 @@
         <v>129</v>
       </c>
       <c r="C122" s="33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D122" s="37">
         <v>45971.0</v>
@@ -3984,7 +3989,7 @@
         <v>1.12</v>
       </c>
       <c r="G125" s="34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="126" ht="14.25" customHeight="1">
@@ -3993,7 +3998,7 @@
         <v>17</v>
       </c>
       <c r="C126" s="33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D126" s="37">
         <v>45972.0</v>
@@ -4005,16 +4010,16 @@
         <v>1.12</v>
       </c>
       <c r="G126" s="34" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="127" ht="14.25" customHeight="1">
       <c r="A127" s="32"/>
       <c r="B127" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C127" s="33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D127" s="37">
         <v>45972.0</v>
@@ -4026,16 +4031,16 @@
         <v>1.0</v>
       </c>
       <c r="G127" s="34" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="128" ht="14.25" customHeight="1">
       <c r="A128" s="32"/>
       <c r="B128" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C128" s="33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D128" s="37">
         <v>45972.0</v>
@@ -4047,7 +4052,7 @@
         <v>1.0</v>
       </c>
       <c r="G128" s="34" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="129" ht="14.25" customHeight="1">
@@ -4089,66 +4094,66 @@
         <v>1.1</v>
       </c>
       <c r="G130" s="40" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="131" ht="14.25" customHeight="1">
       <c r="A131" s="33" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B131" s="25" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C131" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D131" s="33" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F131" s="33">
         <v>1.13</v>
       </c>
       <c r="G131" s="34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="132" ht="14.25" customHeight="1">
       <c r="A132" s="32"/>
       <c r="B132" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="C132" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="D132" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="C132" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="D132" s="33" t="s">
-        <v>245</v>
-      </c>
       <c r="E132" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F132" s="33">
         <v>1.13</v>
       </c>
       <c r="G132" s="34" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="133" ht="14.25" customHeight="1">
       <c r="A133" s="32"/>
       <c r="B133" s="25" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C133" s="33" t="s">
         <v>152</v>
       </c>
       <c r="D133" s="33" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F133" s="33">
         <v>1.13</v>
@@ -4160,106 +4165,106 @@
     <row r="134" ht="14.25" customHeight="1">
       <c r="A134" s="32"/>
       <c r="B134" s="25" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C134" s="33" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F134" s="33">
         <v>1.2</v>
       </c>
       <c r="G134" s="34" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="135" ht="14.25" customHeight="1">
       <c r="A135" s="32"/>
       <c r="B135" s="25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C135" s="33" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F135" s="33">
         <v>1.2</v>
       </c>
       <c r="G135" s="34" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="136" ht="14.25" customHeight="1">
       <c r="A136" s="32"/>
       <c r="B136" s="33" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C136" s="33" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F136" s="33">
         <v>1.2</v>
       </c>
       <c r="G136" s="34" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="137" ht="14.25" customHeight="1">
       <c r="A137" s="32"/>
       <c r="B137" s="33" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C137" s="33" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E137" s="33" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F137" s="33">
         <v>1.0</v>
       </c>
       <c r="G137" s="34" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="138" ht="14.25" customHeight="1">
       <c r="A138" s="32"/>
       <c r="B138" s="33" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C138" s="33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E138" s="33" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F138" s="33">
         <v>1.0</v>
       </c>
       <c r="G138" s="34" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="139" ht="14.25" customHeight="1">
@@ -4271,30 +4276,30 @@
         <v>30</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F139" s="33">
         <v>1.13</v>
       </c>
       <c r="G139" s="34" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="140" ht="14.25" customHeight="1">
       <c r="A140" s="33" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C140" s="9" t="s">
         <v>173</v>
       </c>
       <c r="D140" s="33" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E140" s="27">
         <v>45983.0</v>
@@ -4303,19 +4308,19 @@
         <v>1.2</v>
       </c>
       <c r="G140" s="34" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="141" ht="14.25" customHeight="1">
       <c r="A141" s="32"/>
       <c r="B141" s="9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C141" s="9" t="s">
         <v>176</v>
       </c>
       <c r="D141" s="33" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E141" s="27">
         <v>45984.0</v>
@@ -4324,7 +4329,7 @@
         <v>1.2</v>
       </c>
       <c r="G141" s="34" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="142" ht="14.25" customHeight="1">
@@ -4336,16 +4341,16 @@
         <v>109</v>
       </c>
       <c r="D142" s="33" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E142" s="33" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F142" s="33">
         <v>1.14</v>
       </c>
       <c r="G142" s="34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="143" ht="14.25" customHeight="1">
@@ -4357,16 +4362,16 @@
         <v>18</v>
       </c>
       <c r="D143" s="33" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E143" s="33" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F143" s="33">
         <v>1.14</v>
       </c>
       <c r="G143" s="34" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="144" ht="14.25" customHeight="1">
@@ -4378,10 +4383,10 @@
         <v>152</v>
       </c>
       <c r="D144" s="33" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E144" s="33" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F144" s="33">
         <v>1.14</v>
@@ -4393,43 +4398,43 @@
     <row r="145" ht="14.25" customHeight="1">
       <c r="A145" s="32"/>
       <c r="B145" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D145" s="33" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E145" s="33" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F145" s="33">
         <v>1.0</v>
       </c>
       <c r="G145" s="34" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="146" ht="14.25" customHeight="1">
       <c r="A146" s="32"/>
       <c r="B146" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>180</v>
       </c>
       <c r="D146" s="33" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E146" s="33" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F146" s="33">
         <v>1.0</v>
       </c>
       <c r="G146" s="34" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="147" ht="14.25" customHeight="1">
@@ -4441,7 +4446,7 @@
         <v>30</v>
       </c>
       <c r="D147" s="33" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E147" s="27">
         <v>45984.0</v>
@@ -4450,7 +4455,7 @@
         <v>1.14</v>
       </c>
       <c r="G147" s="34" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="148" ht="14.25" customHeight="1">
@@ -5452,38 +5457,39 @@
     <hyperlink r:id="rId113" location="slide=id.p1" ref="G115"/>
     <hyperlink r:id="rId114" ref="G116"/>
     <hyperlink r:id="rId115" ref="G117"/>
-    <hyperlink r:id="rId116" ref="G119"/>
-    <hyperlink r:id="rId117" ref="G120"/>
-    <hyperlink r:id="rId118" ref="G121"/>
-    <hyperlink r:id="rId119" ref="G122"/>
-    <hyperlink r:id="rId120" ref="G123"/>
-    <hyperlink r:id="rId121" location="gid=1144494217" ref="G125"/>
-    <hyperlink r:id="rId122" location="gid=79874470" ref="G126"/>
-    <hyperlink r:id="rId123" ref="G127"/>
-    <hyperlink r:id="rId124" location="slide=id.p1" ref="G128"/>
-    <hyperlink r:id="rId125" ref="G129"/>
-    <hyperlink r:id="rId126" ref="G130"/>
-    <hyperlink r:id="rId127" location="gid=1144494217" ref="G131"/>
-    <hyperlink r:id="rId128" location="gid=79874470" ref="G132"/>
-    <hyperlink r:id="rId129" ref="G133"/>
-    <hyperlink r:id="rId130" ref="G134"/>
-    <hyperlink r:id="rId131" ref="G135"/>
-    <hyperlink r:id="rId132" ref="G136"/>
-    <hyperlink r:id="rId133" ref="G137"/>
-    <hyperlink r:id="rId134" location="slide=id.p1" ref="G138"/>
-    <hyperlink r:id="rId135" ref="G139"/>
-    <hyperlink r:id="rId136" ref="G140"/>
-    <hyperlink r:id="rId137" location="slide=id.p1" ref="G141"/>
-    <hyperlink r:id="rId138" location="gid=1144494217" ref="G142"/>
-    <hyperlink r:id="rId139" location="gid=79874470" ref="G143"/>
-    <hyperlink r:id="rId140" ref="G144"/>
-    <hyperlink r:id="rId141" location="slide=id.p1" ref="G145"/>
-    <hyperlink r:id="rId142" ref="G146"/>
-    <hyperlink r:id="rId143" ref="G147"/>
+    <hyperlink r:id="rId116" ref="G118"/>
+    <hyperlink r:id="rId117" ref="G119"/>
+    <hyperlink r:id="rId118" ref="G120"/>
+    <hyperlink r:id="rId119" ref="G121"/>
+    <hyperlink r:id="rId120" ref="G122"/>
+    <hyperlink r:id="rId121" ref="G123"/>
+    <hyperlink r:id="rId122" location="gid=1144494217" ref="G125"/>
+    <hyperlink r:id="rId123" location="gid=79874470" ref="G126"/>
+    <hyperlink r:id="rId124" ref="G127"/>
+    <hyperlink r:id="rId125" location="slide=id.p1" ref="G128"/>
+    <hyperlink r:id="rId126" ref="G129"/>
+    <hyperlink r:id="rId127" ref="G130"/>
+    <hyperlink r:id="rId128" location="gid=1144494217" ref="G131"/>
+    <hyperlink r:id="rId129" location="gid=79874470" ref="G132"/>
+    <hyperlink r:id="rId130" ref="G133"/>
+    <hyperlink r:id="rId131" ref="G134"/>
+    <hyperlink r:id="rId132" ref="G135"/>
+    <hyperlink r:id="rId133" ref="G136"/>
+    <hyperlink r:id="rId134" ref="G137"/>
+    <hyperlink r:id="rId135" location="slide=id.p1" ref="G138"/>
+    <hyperlink r:id="rId136" ref="G139"/>
+    <hyperlink r:id="rId137" ref="G140"/>
+    <hyperlink r:id="rId138" location="slide=id.p1" ref="G141"/>
+    <hyperlink r:id="rId139" location="gid=1144494217" ref="G142"/>
+    <hyperlink r:id="rId140" location="gid=79874470" ref="G143"/>
+    <hyperlink r:id="rId141" ref="G144"/>
+    <hyperlink r:id="rId142" location="slide=id.p1" ref="G145"/>
+    <hyperlink r:id="rId143" ref="G146"/>
+    <hyperlink r:id="rId144" ref="G147"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId144"/>
+  <drawing r:id="rId145"/>
 </worksheet>
 </file>